--- a/Wavelet Transformation/AAPL_Repository_summary.xlsx
+++ b/Wavelet Transformation/AAPL_Repository_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Market Intraday Momentum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Wavelet Transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA58E17-064A-DA45-A732-30049248B772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E333A0-430F-0D45-920B-34E90E7C208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41220" yWindow="600" windowWidth="35840" windowHeight="19760" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
+    <workbookView xWindow="38400" yWindow="600" windowWidth="35840" windowHeight="19760" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>file name</t>
   </si>
@@ -207,6 +207,9 @@
   <si>
     <t>AAPL_logisticRegression_dwt_standardize_features.R</t>
   </si>
+  <si>
+    <t>Logsitic Regression+meta-labeling</t>
+  </si>
 </sst>
 </file>
 
@@ -296,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -344,6 +347,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,23 +365,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1312,8 +1321,8 @@
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="744627" cy="282257"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1445,7 +1454,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1516,8 +1525,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588431" cy="281103"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1602,7 +1611,13 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>98</m:t>
+                                <m:t>9</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>8</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -1643,7 +1658,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1714,8 +1729,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="285719"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -1800,7 +1815,13 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>94</m:t>
+                                <m:t>9</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>4</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -1841,7 +1862,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -1912,8 +1933,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="282257"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -1998,7 +2019,13 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>74</m:t>
+                                <m:t>7</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>4</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -2039,7 +2066,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -2110,8 +2137,8 @@
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660400" cy="282257"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -2196,7 +2223,13 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>93</m:t>
+                                <m:t>9</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>3</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -2237,7 +2270,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -2308,8 +2341,8 @@
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="744627" cy="285719"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -2394,7 +2427,13 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>359</m:t>
+                                <m:t>3</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>59</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -2435,7 +2474,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -2505,9 +2544,9 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="588431" cy="281103"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="588430" cy="285719"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -2521,8 +2560,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9283700" y="8616950"/>
-              <a:ext cx="588431" cy="281103"/>
+              <a:off x="9283700" y="12058650"/>
+              <a:ext cx="588430" cy="285719"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2598,7 +2637,7 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>2</m:t>
+                                <m:t>5</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -2616,7 +2655,7 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>25</m:t>
+                                <m:t>22</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -2639,7 +2678,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -2653,8 +2692,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9283700" y="8616950"/>
-              <a:ext cx="588431" cy="281103"/>
+              <a:off x="9283700" y="12058650"/>
+              <a:ext cx="588430" cy="285719"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2692,7 +2731,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>92&amp;16@25&amp;87)]</a:t>
+                <a:t>95&amp;16@22&amp;87)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -2710,8 +2749,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="285719"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -2802,15 +2841,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>5</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>16</m:t>
+                                <m:t>8</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>17</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -2820,15 +2859,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>19</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>90</m:t>
+                                <m:t>16</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>89</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -2843,7 +2882,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -2896,7 +2935,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>95&amp;16@19&amp;90)]</a:t>
+                <a:t>98&amp;17@16&amp;89)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -2913,9 +2952,9 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="588430" cy="282257"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="588430" cy="285719"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -2929,8 +2968,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9283700" y="9150350"/>
-              <a:ext cx="588430" cy="282257"/>
+              <a:off x="9283700" y="12566650"/>
+              <a:ext cx="588430" cy="285719"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3000,21 +3039,21 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>7</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>2</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>24</m:t>
+                                <m:t>6</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>9</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>25</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -3024,15 +3063,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>26</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>98</m:t>
+                                <m:t>29</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>97</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -3047,7 +3086,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -3061,8 +3100,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9283700" y="9150350"/>
-              <a:ext cx="588430" cy="282257"/>
+              <a:off x="9283700" y="12566650"/>
+              <a:ext cx="588430" cy="285719"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3100,7 +3139,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>72&amp;24@26&amp;98)]</a:t>
+                <a:t>69&amp;25@29&amp;97)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -3118,8 +3157,8 @@
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660400" cy="282257"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -3210,7 +3249,7 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>0</m:t>
+                                <m:t>1</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -3228,7 +3267,7 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>27</m:t>
+                                <m:t>28</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -3251,7 +3290,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -3304,7 +3343,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>90&amp;20@27&amp;83)]</a:t>
+                <a:t>91&amp;20@28&amp;83)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -3319,11 +3358,11 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="744627" cy="282257"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -3337,7 +3376,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21894800" y="8591550"/>
+              <a:off x="21894800" y="12299950"/>
               <a:ext cx="744627" cy="282257"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3402,27 +3441,18 @@
                           <m:mr>
                             <m:e>
                               <m:r>
-                                <m:rPr>
-                                  <m:brk m:alnAt="7"/>
-                                </m:rPr>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>3</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>48</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>77</m:t>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>346</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>78</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -3432,15 +3462,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>94</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>355</m:t>
+                                <m:t>96</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>354</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -3455,7 +3485,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -3469,7 +3499,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21894800" y="8591550"/>
+              <a:off x="21894800" y="12299950"/>
               <a:ext cx="744627" cy="282257"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3508,7 +3538,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>348&amp;77@94&amp;355)]</a:t>
+                <a:t>346&amp;78@96&amp;354)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -3525,9 +3555,9 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="588431" cy="281103"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="666529" cy="282257"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -3541,8 +3571,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9283700" y="10356850"/>
-              <a:ext cx="588431" cy="281103"/>
+              <a:off x="9283700" y="13760450"/>
+              <a:ext cx="666529" cy="282257"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3612,15 +3642,21 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>98</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>17</m:t>
+                                <m:t>1</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>02</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>16</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -3630,15 +3666,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>19</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>86</m:t>
+                                <m:t>15</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>87</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -3653,7 +3689,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -3667,8 +3703,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9283700" y="10356850"/>
-              <a:ext cx="588431" cy="281103"/>
+              <a:off x="9283700" y="13760450"/>
+              <a:ext cx="666529" cy="282257"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3706,7 +3742,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>98&amp;17@19&amp;86)]</a:t>
+                <a:t>102&amp;16@15&amp;87)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -3724,8 +3760,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="285719"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -3810,15 +3846,21 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>94</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>15</m:t>
+                                <m:t>9</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>6</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>14</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -3828,15 +3870,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>20</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>91</m:t>
+                                <m:t>18</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>92</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -3851,7 +3893,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -3904,7 +3946,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>94&amp;15@20&amp;91)]</a:t>
+                <a:t>96&amp;14@18&amp;92)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -3922,8 +3964,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="282257"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -4008,15 +4050,21 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>74</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>30</m:t>
+                                <m:t>7</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>7</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>31</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -4026,15 +4074,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>24</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>92</m:t>
+                                <m:t>21</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>91</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -4049,7 +4097,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -4102,7 +4150,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>74&amp;30@24&amp;92)]</a:t>
+                <a:t>77&amp;31@21&amp;91)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -4120,8 +4168,8 @@
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660400" cy="282257"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -4206,7 +4254,13 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>93</m:t>
+                                <m:t>9</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>4</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -4224,7 +4278,7 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>24</m:t>
+                                <m:t>23</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -4247,7 +4301,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -4300,7 +4354,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>93&amp;21@24&amp;82)]</a:t>
+                <a:t>94&amp;21@23&amp;82)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -4318,8 +4372,8 @@
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="744627" cy="285719"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -4333,7 +4387,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21894800" y="10598150"/>
+              <a:off x="21894800" y="14001750"/>
               <a:ext cx="744627" cy="285719"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4404,15 +4458,21 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>359</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>74</m:t>
+                                <m:t>3</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>65</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>78</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -4422,15 +4482,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>83</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>358</m:t>
+                                <m:t>77</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>354</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -4445,7 +4505,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -4459,7 +4519,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21894800" y="10598150"/>
+              <a:off x="21894800" y="14001750"/>
               <a:ext cx="744627" cy="285719"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4498,7 +4558,823 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>359&amp;74@83&amp;358)]</a:t>
+                <a:t>365&amp;78@77&amp;354)]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="588431" cy="281103"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7440AE51-A84B-A34F-AC86-E225F3EC799D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9283700" y="10356850"/>
+              <a:ext cx="588431" cy="281103"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="["/>
+                        <m:endChr m:val="]"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="2"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>9</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>8</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>17</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>19</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>86</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7440AE51-A84B-A34F-AC86-E225F3EC799D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9283700" y="10356850"/>
+              <a:ext cx="588431" cy="281103"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>[■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>98&amp;17@19&amp;86)]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="588430" cy="285719"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="TextBox 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5D8DEE-7D63-F84B-A009-829EF5BD85ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9283700" y="10610850"/>
+              <a:ext cx="588430" cy="285719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="["/>
+                        <m:endChr m:val="]"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="2"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>9</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>4</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>15</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>20</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>91</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="TextBox 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5D8DEE-7D63-F84B-A009-829EF5BD85ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9283700" y="10610850"/>
+              <a:ext cx="588430" cy="285719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>[■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>94&amp;15@20&amp;91)]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="588430" cy="282257"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="TextBox 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7676B26F-4756-644A-9096-0E66E0C13E32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9283700" y="10864850"/>
+              <a:ext cx="588430" cy="282257"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="["/>
+                        <m:endChr m:val="]"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="2"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>7</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>4</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>30</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>24</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>92</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="TextBox 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7676B26F-4756-644A-9096-0E66E0C13E32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9283700" y="10864850"/>
+              <a:ext cx="588430" cy="282257"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>[■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>74&amp;30@24&amp;92)]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="660400" cy="282257"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="TextBox 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F0A302-30DF-F64E-ABA0-F72219F4AD42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9245600" y="11106150"/>
+              <a:ext cx="660400" cy="282257"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="["/>
+                        <m:endChr m:val="]"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="2"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>9</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>3</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>21</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>24</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>82</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="TextBox 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F0A302-30DF-F64E-ABA0-F72219F4AD42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9245600" y="11106150"/>
+              <a:ext cx="660400" cy="282257"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>[■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>93&amp;21@24&amp;82)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -4808,10 +5684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A83DF2-08A8-0B46-A3D8-10068C9D5CF0}">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4828,16 +5704,16 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4849,16 +5725,16 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
@@ -4868,16 +5744,16 @@
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
@@ -4887,16 +5763,16 @@
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4906,16 +5782,16 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
@@ -4925,16 +5801,16 @@
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
@@ -4944,16 +5820,16 @@
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
@@ -4963,16 +5839,16 @@
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="7" t="s">
         <v>15</v>
       </c>
@@ -4982,16 +5858,16 @@
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="7" t="s">
         <v>15</v>
       </c>
@@ -5001,16 +5877,16 @@
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="7" t="s">
         <v>4</v>
       </c>
@@ -5020,20 +5896,20 @@
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5041,20 +5917,20 @@
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -5070,18 +5946,18 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -5252,34 +6128,34 @@
       <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="M27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="11"/>
@@ -5298,14 +6174,14 @@
       <c r="G28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="25" t="s">
         <v>50</v>
       </c>
       <c r="M28" s="11" t="s">
@@ -5323,13 +6199,13 @@
       <c r="Q28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="16" t="s">
+      <c r="R28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="S28" s="16"/>
+      <c r="S28" s="19"/>
     </row>
     <row r="29" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="13" t="s">
         <v>37</v>
       </c>
@@ -5348,10 +6224,10 @@
       <c r="G29" s="7">
         <v>0.8177778</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="25"/>
       <c r="M29">
         <v>0.80430000000000001</v>
       </c>
@@ -5367,11 +6243,11 @@
       <c r="Q29">
         <v>0.80276820000000004</v>
       </c>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
     </row>
     <row r="30" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="13" t="s">
         <v>38</v>
       </c>
@@ -5390,13 +6266,13 @@
       <c r="G30" s="7">
         <v>0.84444439999999998</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="13" t="s">
         <v>39</v>
       </c>
@@ -5415,13 +6291,13 @@
       <c r="G31" s="7">
         <v>0.74226800000000004</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="12" t="s">
         <v>40</v>
       </c>
@@ -5440,13 +6316,13 @@
       <c r="G32" s="14">
         <v>0.79295150000000003</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="12" t="s">
         <v>44</v>
       </c>
@@ -5470,13 +6346,13 @@
         <f>AVERAGE(G29:G32)</f>
         <v>0.79936042500000004</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="11"/>
@@ -5495,28 +6371,28 @@
       <c r="G35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16" t="s">
+      <c r="I35" s="19"/>
+      <c r="J35" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="K35" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
     </row>
-    <row r="36" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+    <row r="36" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
       <c r="B36" s="13" t="s">
         <v>37</v>
       </c>
@@ -5535,10 +6411,10 @@
       <c r="G36" s="8">
         <v>0.84482760000000001</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="25"/>
       <c r="M36" s="11" t="s">
         <v>36</v>
       </c>
@@ -5554,13 +6430,13 @@
       <c r="Q36" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="16" t="s">
+      <c r="R36" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="S36" s="16"/>
+      <c r="S36" s="19"/>
     </row>
     <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="13" t="s">
         <v>38</v>
       </c>
@@ -5579,10 +6455,10 @@
       <c r="G37" s="8">
         <v>0.8430493</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="25"/>
       <c r="M37">
         <v>0.82040000000000002</v>
       </c>
@@ -5598,11 +6474,11 @@
       <c r="Q37">
         <v>0.82057139999999995</v>
       </c>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
     </row>
     <row r="38" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="13" t="s">
         <v>39</v>
       </c>
@@ -5621,13 +6497,13 @@
       <c r="G38" s="8">
         <v>0.73267329999999997</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="23"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
@@ -5646,13 +6522,13 @@
       <c r="G39" s="14">
         <v>0.80519479999999999</v>
       </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="25"/>
     </row>
     <row r="40" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="12" t="s">
         <v>44</v>
       </c>
@@ -5676,13 +6552,13 @@
         <f>AVERAGE(G36:G39)</f>
         <v>0.80643624999999997</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="23"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="25"/>
     </row>
     <row r="42" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="11"/>
@@ -5701,40 +6577,50 @@
       <c r="G42" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16" t="s">
+      <c r="I42" s="19"/>
+      <c r="J42" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="K42" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="17" t="s">
+      <c r="M42" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
     </row>
     <row r="43" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="23"/>
+      <c r="C43" s="8">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.84466019999999997</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0.8558559</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.81196579999999996</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0.83333330000000005</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="25"/>
       <c r="M43" s="11" t="s">
         <v>36</v>
       </c>
@@ -5750,75 +6636,135 @@
       <c r="Q43" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R43" s="16" t="s">
+      <c r="R43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="S43" s="16"/>
+      <c r="S43" s="19"/>
     </row>
     <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="23"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
+      <c r="C44" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.8396226</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.85217390000000004</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.85964910000000005</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.85589519999999997</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="25"/>
+      <c r="M44">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="N44">
+        <v>0.81944439999999996</v>
+      </c>
+      <c r="O44">
+        <v>0.81603769999999998</v>
+      </c>
+      <c r="P44">
+        <v>0.78280539999999998</v>
+      </c>
+      <c r="Q44">
+        <v>0.79907620000000001</v>
+      </c>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
     </row>
     <row r="45" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="23"/>
+      <c r="C45" s="8">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.79508199999999996</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.73404259999999999</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.70408159999999997</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.71875</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="25"/>
     </row>
     <row r="46" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="23"/>
+      <c r="C46" s="14">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.80582520000000002</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0.81981979999999999</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0.77777779999999996</v>
+      </c>
+      <c r="G46" s="14">
+        <v>0.7982456</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="23"/>
+      <c r="C47" s="15">
+        <f>AVERAGE(C43:C46)</f>
+        <v>0.80567500000000003</v>
+      </c>
+      <c r="D47" s="15">
+        <f>AVERAGE(D43:D46)</f>
+        <v>0.82129750000000001</v>
+      </c>
+      <c r="E47" s="15">
+        <f>AVERAGE(E43:E46)</f>
+        <v>0.81547304999999992</v>
+      </c>
+      <c r="F47" s="15">
+        <f>AVERAGE(F43:F46)</f>
+        <v>0.78836857500000002</v>
+      </c>
+      <c r="G47" s="15">
+        <f>AVERAGE(G43:G46)</f>
+        <v>0.80155602500000001</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="11"/>
@@ -5837,40 +6783,50 @@
       <c r="G49" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16" t="s">
+      <c r="I49" s="19"/>
+      <c r="J49" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="K49" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="17" t="s">
+      <c r="M49" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
     </row>
     <row r="50" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="23"/>
+      <c r="C50" s="8">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.84466019999999997</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.86440680000000003</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.87179490000000004</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0.86808510000000005</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="25"/>
       <c r="M50" s="11" t="s">
         <v>36</v>
       </c>
@@ -5886,75 +6842,248 @@
       <c r="Q50" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R50" s="16" t="s">
+      <c r="R50" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="S50" s="16"/>
+      <c r="S50" s="19"/>
     </row>
     <row r="51" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="23"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
+      <c r="C51" s="8">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.86792449999999999</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.87272729999999998</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.84210529999999995</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0.85714290000000004</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="25"/>
+      <c r="M51">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="N51">
+        <v>0.81944439999999996</v>
+      </c>
+      <c r="O51">
+        <v>0.82392779999999999</v>
+      </c>
+      <c r="P51">
+        <v>0.82579190000000002</v>
+      </c>
+      <c r="Q51">
+        <v>0.8248588</v>
+      </c>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
     </row>
     <row r="52" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="23"/>
+      <c r="C52" s="8">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.74590160000000005</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.71296300000000001</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.78571429999999998</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.74757280000000004</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="23"/>
+      <c r="C53" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0.7961165</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0.81739130000000004</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0.80341879999999999</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0.81034479999999998</v>
+      </c>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="25"/>
     </row>
     <row r="54" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="23"/>
+      <c r="C54" s="15">
+        <f>AVERAGE(C50:C53)</f>
+        <v>0.81929999999999992</v>
+      </c>
+      <c r="D54" s="15">
+        <f>AVERAGE(D50:D53)</f>
+        <v>0.81365069999999995</v>
+      </c>
+      <c r="E54" s="15">
+        <f>AVERAGE(E50:E53)</f>
+        <v>0.81687209999999999</v>
+      </c>
+      <c r="F54" s="15">
+        <f>AVERAGE(F50:F53)</f>
+        <v>0.82575832500000002</v>
+      </c>
+      <c r="G54" s="15">
+        <f>AVERAGE(G50:G53)</f>
+        <v>0.82078640000000003</v>
+      </c>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="25"/>
+    </row>
+    <row r="56" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="25"/>
+    </row>
+    <row r="57" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
+      <c r="B57" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="25"/>
+    </row>
+    <row r="58" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A58" s="19"/>
+      <c r="B58" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="25"/>
+    </row>
+    <row r="59" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A59" s="19"/>
+      <c r="B59" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="25"/>
+    </row>
+    <row r="60" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="25"/>
+    </row>
+    <row r="61" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="72">
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:J61"/>
+    <mergeCell ref="K56:K61"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
     <mergeCell ref="M49:S49"/>
     <mergeCell ref="R50:S50"/>
     <mergeCell ref="R51:S51"/>

--- a/Wavelet Transformation/AAPL_Repository_summary.xlsx
+++ b/Wavelet Transformation/AAPL_Repository_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Wavelet Transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E333A0-430F-0D45-920B-34E90E7C208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE420E7-E6D8-B949-96F7-4FA6919D6DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="600" windowWidth="35840" windowHeight="19760" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
+    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
   <si>
     <t>file name</t>
   </si>
@@ -130,9 +130,6 @@
     <t>AAPL_allSet_raw_standardize.csv</t>
   </si>
   <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
     <t>rolling 1: training/test/total=1742/220/2622</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>AAPL_randomforest_raw_standardize_features.R</t>
   </si>
   <si>
-    <t>Logsitic Regression</t>
-  </si>
-  <si>
     <t>AAPL_logisticRegression_raw_standardize_features.R</t>
   </si>
   <si>
@@ -208,7 +202,19 @@
     <t>AAPL_logisticRegression_dwt_standardize_features.R</t>
   </si>
   <si>
-    <t>Logsitic Regression+meta-labeling</t>
+    <t xml:space="preserve">Logsitic Regression, all features exclude Bbandsup, DochianChannell, SMAClose, runsum </t>
+  </si>
+  <si>
+    <t>Random Forest, all features togather</t>
+  </si>
+  <si>
+    <t>optimal threshold</t>
+  </si>
+  <si>
+    <t>optimal threshold  to get the largest F1 score on Training set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logsitic Regression+meta-labeling,all features exclude Bbandsup, DochianChannell, SMAClose, runsum  </t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -356,23 +362,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -380,8 +386,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4662,21 +4671,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>9</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>8</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>17</m:t>
+                                <m:t>99</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>19</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -4686,15 +4689,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>19</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>86</m:t>
+                                <m:t>18</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>84</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -4762,7 +4765,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>98&amp;17@19&amp;86)]</a:t>
+                <a:t>99&amp;19@18&amp;84)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -4779,7 +4782,7 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="588430" cy="285719"/>
+    <xdr:ext cx="666529" cy="285719"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -4795,8 +4798,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9283700" y="10610850"/>
-              <a:ext cx="588430" cy="285719"/>
+              <a:off x="9283700" y="15716250"/>
+              <a:ext cx="666529" cy="285719"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4866,13 +4869,7 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>9</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>4</m:t>
+                                <m:t>101</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -4890,15 +4887,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>20</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>91</m:t>
+                                <m:t>16</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>88</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -4927,8 +4924,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9283700" y="10610850"/>
-              <a:ext cx="588430" cy="285719"/>
+              <a:off x="9283700" y="15716250"/>
+              <a:ext cx="666529" cy="285719"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4966,7 +4963,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>94&amp;15@20&amp;91)]</a:t>
+                <a:t>101&amp;15@16&amp;88)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -4983,7 +4980,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="588430" cy="282257"/>
+    <xdr:ext cx="666528" cy="285719"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -4999,8 +4996,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9283700" y="10864850"/>
-              <a:ext cx="588430" cy="282257"/>
+              <a:off x="9283700" y="15970250"/>
+              <a:ext cx="666528" cy="285719"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5070,21 +5067,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>7</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>4</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>30</m:t>
+                                <m:t>101</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>15</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -5094,15 +5085,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>24</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>92</m:t>
+                                <m:t>16</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>88</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -5131,8 +5122,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9283700" y="10864850"/>
-              <a:ext cx="588430" cy="282257"/>
+              <a:off x="9283700" y="15970250"/>
+              <a:ext cx="666528" cy="285719"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5170,7 +5161,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>74&amp;30@24&amp;92)]</a:t>
+                <a:t>101&amp;15@16&amp;88)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -5185,7 +5176,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660400" cy="282257"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5203,7 +5194,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9245600" y="11106150"/>
+              <a:off x="9245600" y="16211550"/>
               <a:ext cx="660400" cy="282257"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5274,21 +5265,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>9</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>3</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>21</m:t>
+                                <m:t>100</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>16</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -5298,15 +5283,15 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>24</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>82</m:t>
+                                <m:t>17</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>87</m:t>
                               </m:r>
                             </m:e>
                           </m:mr>
@@ -5335,7 +5320,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9245600" y="11106150"/>
+              <a:off x="9245600" y="16211550"/>
               <a:ext cx="660400" cy="282257"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5374,7 +5359,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>93&amp;21@24&amp;82)]</a:t>
+                <a:t>100&amp;16@17&amp;87)]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -5686,8 +5671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A83DF2-08A8-0B46-A3D8-10068C9D5CF0}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5725,16 +5710,16 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5744,16 +5729,16 @@
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
@@ -5763,16 +5748,16 @@
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5782,16 +5767,16 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
@@ -5801,16 +5786,16 @@
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
@@ -5820,16 +5805,16 @@
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
@@ -5839,16 +5824,16 @@
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="7" t="s">
         <v>15</v>
       </c>
@@ -5858,16 +5843,16 @@
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="7" t="s">
         <v>15</v>
       </c>
@@ -5877,16 +5862,16 @@
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="7" t="s">
         <v>4</v>
       </c>
@@ -5896,16 +5881,16 @@
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="7" t="s">
         <v>23</v>
       </c>
@@ -5917,16 +5902,16 @@
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="7" t="s">
         <v>23</v>
       </c>
@@ -5946,18 +5931,18 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -6010,7 +5995,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" s="1"/>
     </row>
@@ -6038,7 +6023,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -6066,7 +6051,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -6094,7 +6079,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -6128,86 +6113,86 @@
       <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="B27" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
+      <c r="M27" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" s="11" t="s">
+      <c r="P28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="11" t="s">
+      <c r="Q28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q28" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R28" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="S28" s="19"/>
+      <c r="R28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" s="21"/>
     </row>
     <row r="29" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="7">
         <v>0.81359999999999999</v>
@@ -6224,10 +6209,10 @@
       <c r="G29" s="7">
         <v>0.8177778</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="25"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
       <c r="M29">
         <v>0.80430000000000001</v>
       </c>
@@ -6243,13 +6228,13 @@
       <c r="Q29">
         <v>0.80276820000000004</v>
       </c>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
     </row>
     <row r="30" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="7">
         <v>0.84089999999999998</v>
@@ -6266,15 +6251,15 @@
       <c r="G30" s="7">
         <v>0.84444439999999998</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="25"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
         <v>0.77270000000000005</v>
@@ -6291,15 +6276,15 @@
       <c r="G31" s="7">
         <v>0.74226800000000004</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="25"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="14">
         <v>0.78639999999999999</v>
@@ -6316,15 +6301,15 @@
       <c r="G32" s="14">
         <v>0.79295150000000003</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="25"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="15">
         <f>AVERAGE(C29:C32)</f>
@@ -6346,55 +6331,55 @@
         <f>AVERAGE(G29:G32)</f>
         <v>0.79936042500000004</v>
       </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="25"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="35" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19" t="s">
+      <c r="H35" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
     </row>
     <row r="36" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="8">
         <v>0.83640000000000003</v>
@@ -6411,34 +6396,34 @@
       <c r="G36" s="8">
         <v>0.84482760000000001</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="25"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="22"/>
       <c r="M36" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O36" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P36" s="11" t="s">
+      <c r="Q36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q36" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R36" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="S36" s="19"/>
+      <c r="R36" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" s="21"/>
     </row>
     <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="8">
         <v>0.84089999999999998</v>
@@ -6455,10 +6440,10 @@
       <c r="G37" s="8">
         <v>0.8430493</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="25"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22"/>
       <c r="M37">
         <v>0.82040000000000002</v>
       </c>
@@ -6474,13 +6459,13 @@
       <c r="Q37">
         <v>0.82057139999999995</v>
       </c>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
     </row>
     <row r="38" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="8">
         <v>0.75449999999999995</v>
@@ -6497,15 +6482,15 @@
       <c r="G38" s="8">
         <v>0.73267329999999997</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="25"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22"/>
     </row>
     <row r="39" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="14">
         <v>0.79549999999999998</v>
@@ -6522,15 +6507,15 @@
       <c r="G39" s="14">
         <v>0.80519479999999999</v>
       </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="25"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="15">
         <f>AVERAGE(C36:C39)</f>
@@ -6552,55 +6537,55 @@
         <f>AVERAGE(G36:G39)</f>
         <v>0.80643624999999997</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="25"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="42" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>54</v>
+      <c r="A42" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
+      <c r="H42" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M42" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
     </row>
     <row r="43" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="8">
         <v>0.82730000000000004</v>
@@ -6617,34 +6602,34 @@
       <c r="G43" s="8">
         <v>0.83333330000000005</v>
       </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="25"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
       <c r="M43" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N43" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O43" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P43" s="11" t="s">
+      <c r="Q43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q43" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R43" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="S43" s="19"/>
+      <c r="R43" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S43" s="21"/>
     </row>
     <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="8">
         <v>0.85</v>
@@ -6661,10 +6646,10 @@
       <c r="G44" s="8">
         <v>0.85589519999999997</v>
       </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="25"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
       <c r="M44">
         <v>0.80089999999999995</v>
       </c>
@@ -6680,13 +6665,13 @@
       <c r="Q44">
         <v>0.79907620000000001</v>
       </c>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
     </row>
     <row r="45" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="8">
         <v>0.75449999999999995</v>
@@ -6703,15 +6688,15 @@
       <c r="G45" s="8">
         <v>0.71875</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="25"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
     </row>
     <row r="46" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="14">
         <v>0.79090000000000005</v>
@@ -6728,15 +6713,15 @@
       <c r="G46" s="14">
         <v>0.7982456</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="25"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22"/>
     </row>
     <row r="47" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="15">
         <f>AVERAGE(C43:C46)</f>
@@ -6758,55 +6743,55 @@
         <f>AVERAGE(G43:G46)</f>
         <v>0.80155602500000001</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="25"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
     </row>
     <row r="49" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>54</v>
+      <c r="A49" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="G49" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19" t="s">
+      <c r="H49" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M49" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="M49" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
     </row>
     <row r="50" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="8">
         <v>0.85909999999999997</v>
@@ -6823,34 +6808,34 @@
       <c r="G50" s="8">
         <v>0.86808510000000005</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="25"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="22"/>
       <c r="M50" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N50" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P50" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O50" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P50" s="11" t="s">
+      <c r="Q50" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q50" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R50" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="S50" s="19"/>
+      <c r="R50" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S50" s="21"/>
     </row>
     <row r="51" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="8">
         <v>0.85450000000000004</v>
@@ -6867,10 +6852,10 @@
       <c r="G51" s="8">
         <v>0.85714290000000004</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="25"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="22"/>
       <c r="M51">
         <v>0.82269999999999999</v>
       </c>
@@ -6886,13 +6871,13 @@
       <c r="Q51">
         <v>0.8248588</v>
       </c>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
     </row>
     <row r="52" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="8">
         <v>0.76359999999999995</v>
@@ -6909,15 +6894,15 @@
       <c r="G52" s="8">
         <v>0.74757280000000004</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="25"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="22"/>
     </row>
     <row r="53" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="14">
         <v>0.8</v>
@@ -6934,15 +6919,15 @@
       <c r="G53" s="14">
         <v>0.81034479999999998</v>
       </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="25"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="22"/>
     </row>
     <row r="54" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="15">
         <f>AVERAGE(C50:C53)</f>
@@ -6964,138 +6949,248 @@
         <f>AVERAGE(G50:G53)</f>
         <v>0.82078640000000003</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="25"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22"/>
     </row>
     <row r="56" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>54</v>
+      <c r="A56" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D56" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="11" t="s">
+      <c r="G56" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="25"/>
+      <c r="H56" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K56" s="22"/>
+      <c r="M56" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
     </row>
     <row r="57" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="C57" s="18">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="D57" s="18">
+        <v>0.81553399999999998</v>
+      </c>
+      <c r="E57" s="18">
+        <v>0.83898309999999998</v>
+      </c>
+      <c r="F57" s="18">
+        <v>0.84615379999999996</v>
+      </c>
+      <c r="G57" s="18">
+        <v>0.8425532</v>
+      </c>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="22"/>
+      <c r="N57" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="C58" s="18">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="D58" s="18">
+        <v>0.85436889999999999</v>
+      </c>
+      <c r="E58" s="18">
+        <v>0.87068970000000001</v>
+      </c>
+      <c r="F58" s="18">
+        <v>0.86324789999999996</v>
+      </c>
+      <c r="G58" s="18">
+        <v>0.86695279999999997</v>
+      </c>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="22"/>
+      <c r="M58" t="s">
+        <v>36</v>
+      </c>
+      <c r="N58" s="20">
+        <v>0.28672419999999998</v>
+      </c>
+      <c r="O58" s="20"/>
     </row>
     <row r="59" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="C59" s="18">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0.85436889999999999</v>
+      </c>
+      <c r="E59" s="19">
+        <v>0.87068970000000001</v>
+      </c>
+      <c r="F59" s="19">
+        <v>0.86324789999999996</v>
+      </c>
+      <c r="G59" s="19">
+        <v>0.86695279999999997</v>
+      </c>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="22"/>
+      <c r="M59" t="s">
+        <v>37</v>
+      </c>
+      <c r="N59" s="20">
+        <v>0.49393569999999998</v>
+      </c>
+      <c r="O59" s="20"/>
     </row>
     <row r="60" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="C60" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0.84466019999999997</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0.86206899999999997</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0.85470089999999999</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0.8583691</v>
+      </c>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="22"/>
+      <c r="M60" t="s">
+        <v>38</v>
+      </c>
+      <c r="N60" s="20">
+        <v>0.49303560000000002</v>
+      </c>
+      <c r="O60" s="20"/>
     </row>
     <row r="61" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="C61" s="15">
+        <f>AVERAGE(C57:C60)</f>
+        <v>0.85</v>
+      </c>
+      <c r="D61" s="15">
+        <f>AVERAGE(D57:D60)</f>
+        <v>0.8422329999999999</v>
+      </c>
+      <c r="E61" s="15">
+        <f>AVERAGE(E57:E60)</f>
+        <v>0.86060787499999991</v>
+      </c>
+      <c r="F61" s="15">
+        <f>AVERAGE(F57:F60)</f>
+        <v>0.85683762500000005</v>
+      </c>
+      <c r="G61" s="15">
+        <f>AVERAGE(G57:G60)</f>
+        <v>0.85870697500000004</v>
+      </c>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="22"/>
+      <c r="M61" t="s">
+        <v>39</v>
+      </c>
+      <c r="N61" s="20">
+        <v>0.46019470000000001</v>
+      </c>
+      <c r="O61" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:J61"/>
-    <mergeCell ref="K56:K61"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:J54"/>
-    <mergeCell ref="K49:K54"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
+  <mergeCells count="78">
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K28:K33"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="K35:K40"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="R37:S37"/>
     <mergeCell ref="M35:S35"/>
@@ -7112,41 +7207,33 @@
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="R44:S44"/>
     <mergeCell ref="A35:A40"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="K35:K40"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="M27:S27"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="J28:J33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K28:K33"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:J54"/>
+    <mergeCell ref="K49:K54"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:J61"/>
+    <mergeCell ref="K56:K61"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="M56:S56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Wavelet Transformation/AAPL_Repository_summary.xlsx
+++ b/Wavelet Transformation/AAPL_Repository_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Wavelet Transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE420E7-E6D8-B949-96F7-4FA6919D6DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B675D76-4EEC-5944-B2FF-90F0CE9642F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
+    <workbookView xWindow="35840" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
   <si>
     <t>file name</t>
   </si>
@@ -216,12 +216,18 @@
   <si>
     <t xml:space="preserve">Logsitic Regression+meta-labeling,all features exclude Bbandsup, DochianChannell, SMAClose, runsum  </t>
   </si>
+  <si>
+    <t>Wavelet transform</t>
+  </si>
+  <si>
+    <t>Intraday m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -272,6 +278,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -305,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -362,23 +374,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -386,12 +401,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,13 +434,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>479470</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -459,7 +478,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -514,7 +533,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588431" cy="281103"/>
@@ -717,7 +736,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="285719"/>
@@ -920,7 +939,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="282257"/>
@@ -1123,7 +1142,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660400" cy="282257"/>
@@ -1326,7 +1345,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="744627" cy="282257"/>
@@ -1530,7 +1549,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588431" cy="281103"/>
@@ -1734,7 +1753,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="285719"/>
@@ -1938,7 +1957,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="282257"/>
@@ -2142,7 +2161,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660400" cy="282257"/>
@@ -2346,7 +2365,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="744627" cy="285719"/>
@@ -2550,7 +2569,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="285719"/>
@@ -2754,7 +2773,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="285719"/>
@@ -2958,7 +2977,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="285719"/>
@@ -3162,7 +3181,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660400" cy="282257"/>
@@ -3366,7 +3385,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="744627" cy="282257"/>
@@ -3561,7 +3580,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="666529" cy="282257"/>
@@ -3765,7 +3784,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="285719"/>
@@ -3969,7 +3988,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588430" cy="282257"/>
@@ -4173,7 +4192,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660400" cy="282257"/>
@@ -4377,7 +4396,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="744627" cy="285719"/>
@@ -4581,12 +4600,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="588431" cy="281103"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -4671,7 +4690,13 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>99</m:t>
+                                <m:t>9</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>9</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -4712,7 +4737,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -4779,12 +4804,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="666529" cy="285719"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -4869,7 +4894,13 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>101</m:t>
+                                <m:t>1</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>01</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -4910,7 +4941,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -4977,12 +5008,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="666528" cy="285719"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -5067,7 +5098,13 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>101</m:t>
+                                <m:t>1</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>01</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -5108,7 +5145,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -5175,12 +5212,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660400" cy="282257"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -5265,7 +5302,13 @@
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>100</m:t>
+                                <m:t>1</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>00</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -5306,7 +5349,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -5669,10 +5712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A83DF2-08A8-0B46-A3D8-10068C9D5CF0}">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5685,267 +5728,283 @@
     <col min="11" max="11" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+    </row>
+    <row r="2" spans="1:19" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+    </row>
+    <row r="3" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="5" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:19" ht="40" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" ht="40" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="7" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K13" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="14" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="7" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="26"/>
+      <c r="K14" s="27"/>
     </row>
-    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5958,17 +6017,19 @@
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+    <row r="16" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="21" x14ac:dyDescent="0.25">
@@ -5994,9 +6055,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" t="s">
-        <v>31</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="21" x14ac:dyDescent="0.25">
@@ -6023,7 +6082,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -6050,8 +6109,8 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="3" t="s">
-        <v>33</v>
+      <c r="J22" t="s">
+        <v>32</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -6078,8 +6137,8 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="4" t="s">
-        <v>34</v>
+      <c r="J24" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -6106,1134 +6165,1187 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="22" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B29" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="10" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M29" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
     </row>
-    <row r="28" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+    <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H30" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21" t="s">
+      <c r="I30" s="20"/>
+      <c r="J30" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="O30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R28" s="21" t="s">
+      <c r="R30" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="S28" s="21"/>
-    </row>
-    <row r="29" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.84466019999999997</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.8518519</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.78632480000000005</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0.8177778</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="M29">
-        <v>0.80430000000000001</v>
-      </c>
-      <c r="N29">
-        <v>0.82175929999999997</v>
-      </c>
-      <c r="O29">
-        <v>0.81882350000000004</v>
-      </c>
-      <c r="P29">
-        <v>0.78733030000000004</v>
-      </c>
-      <c r="Q29">
-        <v>0.80276820000000004</v>
-      </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-    </row>
-    <row r="30" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.84089999999999998</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.84905660000000005</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0.8558559</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0.83333330000000005</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0.84444439999999998</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
+      <c r="S30" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.84466019999999997</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.8518519</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.78632480000000005</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.8177778</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="26"/>
+      <c r="M31">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.82175929999999997</v>
+      </c>
+      <c r="O31">
+        <v>0.81882350000000004</v>
+      </c>
+      <c r="P31">
+        <v>0.78733030000000004</v>
+      </c>
+      <c r="Q31">
+        <v>0.80276820000000004</v>
+      </c>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+    </row>
+    <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.84905660000000005</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.8558559</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.83333330000000005</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.84444439999999998</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C33" s="7">
         <v>0.77270000000000005</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D33" s="7">
         <v>0.80327870000000001</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E33" s="7">
         <v>0.75</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F33" s="7">
         <v>0.73469390000000001</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G33" s="7">
         <v>0.74226800000000004</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="22"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="26"/>
     </row>
-    <row r="32" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="12" t="s">
+    <row r="34" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C34" s="14">
         <v>0.78639999999999999</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D34" s="14">
         <v>0.80582520000000002</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E34" s="14">
         <v>0.81818179999999996</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F34" s="14">
         <v>0.76923079999999999</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G34" s="14">
         <v>0.79295150000000003</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="26"/>
     </row>
-    <row r="33" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="12" t="s">
+    <row r="35" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="15">
-        <f>AVERAGE(C29:C32)</f>
+      <c r="C35" s="15">
+        <f>AVERAGE(C31:C34)</f>
         <v>0.8034</v>
       </c>
-      <c r="D33" s="15">
-        <f>AVERAGE(D29:D32)</f>
+      <c r="D35" s="15">
+        <f>AVERAGE(D31:D34)</f>
         <v>0.82570517500000007</v>
       </c>
-      <c r="E33" s="15">
-        <f>AVERAGE(E29:E32)</f>
+      <c r="E35" s="15">
+        <f>AVERAGE(E31:E34)</f>
         <v>0.81897240000000004</v>
       </c>
-      <c r="F33" s="15">
-        <f>AVERAGE(F29:F32)</f>
+      <c r="F35" s="15">
+        <f>AVERAGE(F31:F34)</f>
         <v>0.78089569999999997</v>
       </c>
-      <c r="G33" s="15">
-        <f>AVERAGE(G29:G32)</f>
+      <c r="G35" s="15">
+        <f>AVERAGE(G31:G34)</f>
         <v>0.79936042500000004</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="35" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-    </row>
-    <row r="36" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0.83640000000000003</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0.83495149999999996</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0.85217390000000004</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0.83760679999999998</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0.84482760000000001</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22"/>
-      <c r="M36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R36" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S36" s="21"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+    </row>
+    <row r="38" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.83495149999999996</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.85217390000000004</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.83760679999999998</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.84482760000000001</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="26"/>
+      <c r="M38" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R38" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="S38" s="20"/>
+    </row>
+    <row r="39" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C39" s="8">
         <v>0.84089999999999998</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D39" s="8">
         <v>0.85849059999999999</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E39" s="8">
         <v>0.86238530000000002</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F39" s="8">
         <v>0.8245614</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G39" s="8">
         <v>0.8430493</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="22"/>
-      <c r="M37">
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="26"/>
+      <c r="M39">
         <v>0.82040000000000002</v>
       </c>
-      <c r="N37">
+      <c r="N39">
         <v>0.82870370000000004</v>
       </c>
-      <c r="O37">
+      <c r="O39">
         <v>0.82909929999999998</v>
       </c>
-      <c r="P37">
+      <c r="P39">
         <v>0.81221719999999997</v>
       </c>
-      <c r="Q37">
+      <c r="Q39">
         <v>0.82057139999999995</v>
       </c>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
     </row>
-    <row r="38" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="13" t="s">
+    <row r="40" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C40" s="8">
         <v>0.75449999999999995</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D40" s="8">
         <v>0.75409839999999995</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E40" s="8">
         <v>0.71153849999999996</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F40" s="8">
         <v>0.75510200000000005</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G40" s="8">
         <v>0.73267329999999997</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="22"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="26"/>
     </row>
-    <row r="39" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="12" t="s">
+    <row r="41" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C41" s="14">
         <v>0.79549999999999998</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D41" s="14">
         <v>0.7961165</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E41" s="14">
         <v>0.81578949999999995</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F41" s="14">
         <v>0.79487180000000002</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G41" s="14">
         <v>0.80519479999999999</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="26"/>
     </row>
-    <row r="40" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="12" t="s">
+    <row r="42" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="15">
-        <f>AVERAGE(C36:C39)</f>
+      <c r="C42" s="15">
+        <f>AVERAGE(C38:C41)</f>
         <v>0.80682500000000001</v>
       </c>
-      <c r="D40" s="15">
-        <f>AVERAGE(D36:D39)</f>
+      <c r="D42" s="15">
+        <f>AVERAGE(D38:D41)</f>
         <v>0.81091424999999995</v>
       </c>
-      <c r="E40" s="15">
-        <f>AVERAGE(E36:E39)</f>
+      <c r="E42" s="15">
+        <f>AVERAGE(E38:E41)</f>
         <v>0.81047179999999996</v>
       </c>
-      <c r="F40" s="15">
-        <f>AVERAGE(F36:F39)</f>
+      <c r="F42" s="15">
+        <f>AVERAGE(F38:F41)</f>
         <v>0.80303550000000001</v>
       </c>
-      <c r="G40" s="15">
-        <f>AVERAGE(G36:G39)</f>
+      <c r="G42" s="15">
+        <f>AVERAGE(G38:G41)</f>
         <v>0.80643624999999997</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="42" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-    </row>
-    <row r="43" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="8">
-        <v>0.82730000000000004</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0.84466019999999997</v>
-      </c>
-      <c r="E43" s="16">
-        <v>0.8558559</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0.81196579999999996</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0.83333330000000005</v>
-      </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="22"/>
-      <c r="M43" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R43" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S43" s="21"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="26"/>
     </row>
     <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+    </row>
+    <row r="45" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.84466019999999997</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0.8558559</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.81196579999999996</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.83333330000000005</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="26"/>
+      <c r="M45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R45" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="S45" s="20"/>
+    </row>
+    <row r="46" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A46" s="20"/>
+      <c r="B46" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C46" s="8">
         <v>0.85</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D46" s="8">
         <v>0.8396226</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E46" s="8">
         <v>0.85217390000000004</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F46" s="8">
         <v>0.85964910000000005</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G46" s="8">
         <v>0.85589519999999997</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="22"/>
-      <c r="M44">
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="26"/>
+      <c r="M46">
         <v>0.80089999999999995</v>
       </c>
-      <c r="N44">
+      <c r="N46">
         <v>0.81944439999999996</v>
       </c>
-      <c r="O44">
+      <c r="O46">
         <v>0.81603769999999998</v>
       </c>
-      <c r="P44">
+      <c r="P46">
         <v>0.78280539999999998</v>
       </c>
-      <c r="Q44">
+      <c r="Q46">
         <v>0.79907620000000001</v>
       </c>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
     </row>
-    <row r="45" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="13" t="s">
+    <row r="47" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C47" s="8">
         <v>0.75449999999999995</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D47" s="8">
         <v>0.79508199999999996</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E47" s="8">
         <v>0.73404259999999999</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F47" s="8">
         <v>0.70408159999999997</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G47" s="8">
         <v>0.71875</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="22"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="26"/>
     </row>
-    <row r="46" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="12" t="s">
+    <row r="48" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C48" s="14">
         <v>0.79090000000000005</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D48" s="14">
         <v>0.80582520000000002</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E48" s="14">
         <v>0.81981979999999999</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F48" s="14">
         <v>0.77777779999999996</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G48" s="14">
         <v>0.7982456</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="22"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="26"/>
     </row>
-    <row r="47" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="12" t="s">
+    <row r="49" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="15">
-        <f>AVERAGE(C43:C46)</f>
+      <c r="C49" s="15">
+        <f>AVERAGE(C45:C48)</f>
         <v>0.80567500000000003</v>
       </c>
-      <c r="D47" s="15">
-        <f>AVERAGE(D43:D46)</f>
+      <c r="D49" s="15">
+        <f>AVERAGE(D45:D48)</f>
         <v>0.82129750000000001</v>
       </c>
-      <c r="E47" s="15">
-        <f>AVERAGE(E43:E46)</f>
+      <c r="E49" s="15">
+        <f>AVERAGE(E45:E48)</f>
         <v>0.81547304999999992</v>
       </c>
-      <c r="F47" s="15">
-        <f>AVERAGE(F43:F46)</f>
+      <c r="F49" s="15">
+        <f>AVERAGE(F45:F48)</f>
         <v>0.78836857500000002</v>
       </c>
-      <c r="G47" s="15">
-        <f>AVERAGE(G43:G46)</f>
+      <c r="G49" s="15">
+        <f>AVERAGE(G45:G48)</f>
         <v>0.80155602500000001</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="22"/>
-    </row>
-    <row r="49" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="M49" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-    </row>
-    <row r="50" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="8">
-        <v>0.85909999999999997</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0.84466019999999997</v>
-      </c>
-      <c r="E50" s="8">
-        <v>0.86440680000000003</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0.87179490000000004</v>
-      </c>
-      <c r="G50" s="8">
-        <v>0.86808510000000005</v>
-      </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="22"/>
-      <c r="M50" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O50" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q50" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R50" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S50" s="21"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="26"/>
     </row>
     <row r="51" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="8">
-        <v>0.85450000000000004</v>
-      </c>
-      <c r="D51" s="8">
-        <v>0.86792449999999999</v>
-      </c>
-      <c r="E51" s="8">
-        <v>0.87272729999999998</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0.84210529999999995</v>
-      </c>
-      <c r="G51" s="8">
-        <v>0.85714290000000004</v>
-      </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="22"/>
-      <c r="M51">
-        <v>0.82269999999999999</v>
-      </c>
-      <c r="N51">
-        <v>0.81944439999999996</v>
-      </c>
-      <c r="O51">
-        <v>0.82392779999999999</v>
-      </c>
-      <c r="P51">
-        <v>0.82579190000000002</v>
-      </c>
-      <c r="Q51">
-        <v>0.8248588</v>
-      </c>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
+      <c r="A51" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M51" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
     </row>
     <row r="52" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.84466019999999997</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.86440680000000003</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.87179490000000004</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.86808510000000005</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="26"/>
+      <c r="M52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R52" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="S52" s="20"/>
+    </row>
+    <row r="53" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.86792449999999999</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.87272729999999998</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.84210529999999995</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0.85714290000000004</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="26"/>
+      <c r="M53">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="N53">
+        <v>0.81944439999999996</v>
+      </c>
+      <c r="O53">
+        <v>0.82392779999999999</v>
+      </c>
+      <c r="P53">
+        <v>0.82579190000000002</v>
+      </c>
+      <c r="Q53">
+        <v>0.8248588</v>
+      </c>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+    </row>
+    <row r="54" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C54" s="8">
         <v>0.76359999999999995</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D54" s="8">
         <v>0.74590160000000005</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E54" s="8">
         <v>0.71296300000000001</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F54" s="8">
         <v>0.78571429999999998</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G54" s="8">
         <v>0.74757280000000004</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="22"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="26"/>
     </row>
-    <row r="53" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="12" t="s">
+    <row r="55" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C55" s="14">
         <v>0.8</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D55" s="14">
         <v>0.7961165</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E55" s="14">
         <v>0.81739130000000004</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F55" s="14">
         <v>0.80341879999999999</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G55" s="14">
         <v>0.81034479999999998</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="22"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="26"/>
     </row>
-    <row r="54" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="12" t="s">
+    <row r="56" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="B56" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="15">
-        <f>AVERAGE(C50:C53)</f>
+      <c r="C56" s="15">
+        <f>AVERAGE(C52:C55)</f>
         <v>0.81929999999999992</v>
       </c>
-      <c r="D54" s="15">
-        <f>AVERAGE(D50:D53)</f>
+      <c r="D56" s="15">
+        <f>AVERAGE(D52:D55)</f>
         <v>0.81365069999999995</v>
       </c>
-      <c r="E54" s="15">
-        <f>AVERAGE(E50:E53)</f>
+      <c r="E56" s="15">
+        <f>AVERAGE(E52:E55)</f>
         <v>0.81687209999999999</v>
       </c>
-      <c r="F54" s="15">
-        <f>AVERAGE(F50:F53)</f>
+      <c r="F56" s="15">
+        <f>AVERAGE(F52:F55)</f>
         <v>0.82575832500000002</v>
       </c>
-      <c r="G54" s="15">
-        <f>AVERAGE(G50:G53)</f>
+      <c r="G56" s="15">
+        <f>AVERAGE(G52:G55)</f>
         <v>0.82078640000000003</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="22"/>
-    </row>
-    <row r="56" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="K56" s="22"/>
-      <c r="M56" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-    </row>
-    <row r="57" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="18">
-        <v>0.83179999999999998</v>
-      </c>
-      <c r="D57" s="18">
-        <v>0.81553399999999998</v>
-      </c>
-      <c r="E57" s="18">
-        <v>0.83898309999999998</v>
-      </c>
-      <c r="F57" s="18">
-        <v>0.84615379999999996</v>
-      </c>
-      <c r="G57" s="18">
-        <v>0.8425532</v>
-      </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="22"/>
-      <c r="N57" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="O57" s="20"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="26"/>
     </row>
     <row r="58" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="18">
-        <v>0.85909999999999997</v>
-      </c>
-      <c r="D58" s="18">
-        <v>0.85436889999999999</v>
-      </c>
-      <c r="E58" s="18">
-        <v>0.87068970000000001</v>
-      </c>
-      <c r="F58" s="18">
-        <v>0.86324789999999996</v>
-      </c>
-      <c r="G58" s="18">
-        <v>0.86695279999999997</v>
-      </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="22"/>
-      <c r="M58" t="s">
-        <v>36</v>
-      </c>
-      <c r="N58" s="20">
-        <v>0.28672419999999998</v>
-      </c>
-      <c r="O58" s="20"/>
+      <c r="A58" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="26"/>
+      <c r="M58" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
     </row>
     <row r="59" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="18">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="D59" s="18">
+        <v>0.81553399999999998</v>
+      </c>
+      <c r="E59" s="18">
+        <v>0.83898309999999998</v>
+      </c>
+      <c r="F59" s="18">
+        <v>0.84615379999999996</v>
+      </c>
+      <c r="G59" s="18">
+        <v>0.8425532</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="26"/>
+      <c r="N59" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="O59" s="22"/>
+    </row>
+    <row r="60" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="18">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="D60" s="18">
+        <v>0.85436889999999999</v>
+      </c>
+      <c r="E60" s="18">
+        <v>0.87068970000000001</v>
+      </c>
+      <c r="F60" s="18">
+        <v>0.86324789999999996</v>
+      </c>
+      <c r="G60" s="18">
+        <v>0.86695279999999997</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="26"/>
+      <c r="M60" t="s">
+        <v>36</v>
+      </c>
+      <c r="N60" s="22">
+        <v>0.28672419999999998</v>
+      </c>
+      <c r="O60" s="22"/>
+    </row>
+    <row r="61" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C61" s="18">
         <v>0.85909999999999997</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D61" s="19">
         <v>0.85436889999999999</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E61" s="19">
         <v>0.87068970000000001</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F61" s="19">
         <v>0.86324789999999996</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G61" s="19">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="22"/>
-      <c r="M59" t="s">
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="26"/>
+      <c r="M61" t="s">
         <v>37</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N61" s="22">
         <v>0.49393569999999998</v>
       </c>
-      <c r="O59" s="20"/>
+      <c r="O61" s="22"/>
     </row>
-    <row r="60" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="12" t="s">
+    <row r="62" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+      <c r="B62" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C62" s="14">
         <v>0.85</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D62" s="14">
         <v>0.84466019999999997</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E62" s="14">
         <v>0.86206899999999997</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F62" s="14">
         <v>0.85470089999999999</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G62" s="14">
         <v>0.8583691</v>
       </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="22"/>
-      <c r="M60" t="s">
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="26"/>
+      <c r="M62" t="s">
         <v>38</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N62" s="22">
         <v>0.49303560000000002</v>
       </c>
-      <c r="O60" s="20"/>
+      <c r="O62" s="22"/>
     </row>
-    <row r="61" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="12" t="s">
+    <row r="63" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+      <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="15">
-        <f>AVERAGE(C57:C60)</f>
+      <c r="C63" s="15">
+        <f>AVERAGE(C59:C62)</f>
         <v>0.85</v>
       </c>
-      <c r="D61" s="15">
-        <f>AVERAGE(D57:D60)</f>
+      <c r="D63" s="15">
+        <f>AVERAGE(D59:D62)</f>
         <v>0.8422329999999999</v>
       </c>
-      <c r="E61" s="15">
-        <f>AVERAGE(E57:E60)</f>
+      <c r="E63" s="15">
+        <f>AVERAGE(E59:E62)</f>
         <v>0.86060787499999991</v>
       </c>
-      <c r="F61" s="15">
-        <f>AVERAGE(F57:F60)</f>
+      <c r="F63" s="15">
+        <f>AVERAGE(F59:F62)</f>
         <v>0.85683762500000005</v>
       </c>
-      <c r="G61" s="15">
-        <f>AVERAGE(G57:G60)</f>
+      <c r="G63" s="15">
+        <f>AVERAGE(G59:G62)</f>
         <v>0.85870697500000004</v>
       </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="22"/>
-      <c r="M61" t="s">
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="26"/>
+      <c r="M63" t="s">
         <v>39</v>
       </c>
-      <c r="N61" s="20">
+      <c r="N63" s="22">
         <v>0.46019470000000001</v>
       </c>
-      <c r="O61" s="20"/>
+      <c r="O63" s="22"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="M27:S27"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="J28:J33"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
+  <mergeCells count="80">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A67:S67"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:J63"/>
+    <mergeCell ref="K58:K63"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="M58:S58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="M51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="K44:K49"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="M44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="J30:J35"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K28:K33"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="K35:K40"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:J47"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="M42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:J54"/>
-    <mergeCell ref="K49:K54"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:J61"/>
-    <mergeCell ref="K56:K61"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="M56:S56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="K30:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Wavelet Transformation/AAPL_Repository_summary.xlsx
+++ b/Wavelet Transformation/AAPL_Repository_summary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Wavelet Transformation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum_python/Wavelet Transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B675D76-4EEC-5944-B2FF-90F0CE9642F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29285456-ED03-8E48-9891-580D272F4EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
+    <workbookView xWindow="38400" yWindow="1040" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="1" r:id="rId1"/>
+    <sheet name="references" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
   <si>
     <t>file name</t>
   </si>
@@ -220,14 +221,140 @@
     <t>Wavelet transform</t>
   </si>
   <si>
-    <t>Intraday m</t>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>replicate the result with Image Processing Tools for Financial Time Series Classification, https://arxiv.org/abs/2008.06042</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Time-frequency representation of digital signals and systems based on short-time Fourier analysis</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>10.1109/TASSP.1980.1163359</t>
+  </si>
+  <si>
+    <t>Main  summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fourier transform is a fundemental and powerful signal analysis tool that provides a unique representation, from the time domain to the requency domain, for signals in terms of the complex exponentials. </t>
+  </si>
+  <si>
+    <t>autor</t>
+  </si>
+  <si>
+    <t>M.portnoff</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Acoustics, Speech, and Signal Processing</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>55-69</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>Signal estimation from modified short-time Fourier transform</t>
+  </si>
+  <si>
+    <t>10.1109/TASSP.1984.1164317</t>
+  </si>
+  <si>
+    <t>The short-time Fourier transform partition raw signal by using a sliding window to fix this problem.</t>
+  </si>
+  <si>
+    <t>D. Griffin,  Jae Lim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE Transactions on Acoustics, Speech, and Signal Processing</t>
+  </si>
+  <si>
+    <t>236-243</t>
+  </si>
+  <si>
+    <t>Image Processing Tools for Financial Time Series Classification</t>
+  </si>
+  <si>
+    <t>Bairui Du, Delmiro Fernandez-Reyes, Paolo Barucca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantitative Finance </t>
+  </si>
+  <si>
+    <t>arxiv</t>
+  </si>
+  <si>
+    <t>Wavelet transformation is a more competitive method for analysing dynamic signals, mostly because it identifies the existing frequencies in the original signal and also when these frequencies appear and disappear by controlling the scale change of the wavelet</t>
+  </si>
+  <si>
+    <t>WAVELET TRANSFORMS AND THEIR APPLICATIONS TO TURBULENCE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1146/annurev.fl.24.010192.002143</t>
+  </si>
+  <si>
+    <t>Marie Farge</t>
+  </si>
+  <si>
+    <t>Annual Review of Fluid Mechanics</t>
+  </si>
+  <si>
+    <t>ANNUAL REVIEWS</t>
+  </si>
+  <si>
+    <t>395-458</t>
+  </si>
+  <si>
+    <t>The limited spatial support of wavelets is important because then the behavior of the signal at infinity does not play any role. Therefore the wavelet analysis or syn­ thesis can be performed locally on the signal, as opposed to the Fourier transform which is inherently nonlocal due to the space-filling nature of the trigonometric functions.</t>
+  </si>
+  <si>
+    <t>The wavelet transform, time-frequency localization and signal analysis</t>
+  </si>
+  <si>
+    <t>961-1005</t>
+  </si>
+  <si>
+    <t>ISSUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE Transactions on Information Theory </t>
+  </si>
+  <si>
+    <t>10.1109/18.57199</t>
+  </si>
+  <si>
+    <t>Ingride Daubechies</t>
+  </si>
+  <si>
+    <t>Daubechies mentioned that the wavelet transform can be used to analyse time series that contain non-stationary power at many different frequencies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,6 +411,27 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -314,10 +462,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,14 +523,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -389,30 +587,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5714,8 +5891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A83DF2-08A8-0B46-A3D8-10068C9D5CF0}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:S67"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5732,62 +5909,62 @@
       <c r="A1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
     </row>
-    <row r="2" spans="1:19" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
+    <row r="2" spans="1:19" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>26</v>
@@ -5797,16 +5974,16 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5816,16 +5993,16 @@
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
@@ -5835,16 +6012,16 @@
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
@@ -5854,16 +6031,16 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="7" t="s">
         <v>4</v>
       </c>
@@ -5873,16 +6050,16 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
@@ -5892,16 +6069,16 @@
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
@@ -5911,16 +6088,16 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
@@ -5930,16 +6107,16 @@
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
@@ -5949,16 +6126,16 @@
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="7" t="s">
         <v>4</v>
       </c>
@@ -5968,20 +6145,20 @@
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5989,20 +6166,20 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -6018,18 +6195,18 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="21" x14ac:dyDescent="0.25">
@@ -6200,34 +6377,34 @@
       <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
       <c r="J29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
     </row>
     <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="11"/>
@@ -6246,14 +6423,14 @@
       <c r="G30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20" t="s">
+      <c r="I30" s="34"/>
+      <c r="J30" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="35" t="s">
         <v>49</v>
       </c>
       <c r="M30" s="11" t="s">
@@ -6271,13 +6448,13 @@
       <c r="Q30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="20" t="s">
+      <c r="R30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="S30" s="20"/>
+      <c r="S30" s="34"/>
     </row>
     <row r="31" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="13" t="s">
         <v>36</v>
       </c>
@@ -6296,10 +6473,10 @@
       <c r="G31" s="7">
         <v>0.8177778</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="26"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
       <c r="M31">
         <v>0.80430000000000001</v>
       </c>
@@ -6315,11 +6492,11 @@
       <c r="Q31">
         <v>0.80276820000000004</v>
       </c>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
     </row>
     <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="13" t="s">
         <v>37</v>
       </c>
@@ -6338,13 +6515,13 @@
       <c r="G32" s="7">
         <v>0.84444439999999998</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="26"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="13" t="s">
         <v>38</v>
       </c>
@@ -6363,13 +6540,13 @@
       <c r="G33" s="7">
         <v>0.74226800000000004</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="26"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
@@ -6388,13 +6565,13 @@
       <c r="G34" s="14">
         <v>0.79295150000000003</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="26"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="35"/>
     </row>
     <row r="35" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
@@ -6418,13 +6595,13 @@
         <f>AVERAGE(G31:G34)</f>
         <v>0.79936042500000004</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="26"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="35"/>
     </row>
     <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="11"/>
@@ -6443,28 +6620,28 @@
       <c r="G37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20" t="s">
+      <c r="I37" s="34"/>
+      <c r="J37" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M37" s="21" t="s">
+      <c r="M37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="13" t="s">
         <v>36</v>
       </c>
@@ -6483,10 +6660,10 @@
       <c r="G38" s="8">
         <v>0.84482760000000001</v>
       </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="26"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="35"/>
       <c r="M38" s="11" t="s">
         <v>35</v>
       </c>
@@ -6502,13 +6679,13 @@
       <c r="Q38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="20" t="s">
+      <c r="R38" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="S38" s="20"/>
+      <c r="S38" s="34"/>
     </row>
     <row r="39" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
@@ -6527,10 +6704,10 @@
       <c r="G39" s="8">
         <v>0.8430493</v>
       </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="26"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
       <c r="M39">
         <v>0.82040000000000002</v>
       </c>
@@ -6546,11 +6723,11 @@
       <c r="Q39">
         <v>0.82057139999999995</v>
       </c>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
     </row>
     <row r="40" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
@@ -6569,13 +6746,13 @@
       <c r="G40" s="8">
         <v>0.73267329999999997</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="26"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
@@ -6594,13 +6771,13 @@
       <c r="G41" s="14">
         <v>0.80519479999999999</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="26"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="12" t="s">
         <v>43</v>
       </c>
@@ -6624,13 +6801,13 @@
         <f>AVERAGE(G38:G41)</f>
         <v>0.80643624999999997</v>
       </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="26"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="35"/>
     </row>
     <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="11"/>
@@ -6649,28 +6826,28 @@
       <c r="G44" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="20" t="s">
+      <c r="H44" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20" t="s">
+      <c r="I44" s="34"/>
+      <c r="J44" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="K44" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="21" t="s">
+      <c r="M44" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
     </row>
     <row r="45" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="13" t="s">
         <v>36</v>
       </c>
@@ -6689,10 +6866,10 @@
       <c r="G45" s="8">
         <v>0.83333330000000005</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="26"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="35"/>
       <c r="M45" s="11" t="s">
         <v>35</v>
       </c>
@@ -6708,13 +6885,13 @@
       <c r="Q45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R45" s="20" t="s">
+      <c r="R45" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="S45" s="20"/>
+      <c r="S45" s="34"/>
     </row>
     <row r="46" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="13" t="s">
         <v>37</v>
       </c>
@@ -6733,10 +6910,10 @@
       <c r="G46" s="8">
         <v>0.85589519999999997</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="26"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35"/>
       <c r="M46">
         <v>0.80089999999999995</v>
       </c>
@@ -6752,11 +6929,11 @@
       <c r="Q46">
         <v>0.79907620000000001</v>
       </c>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
     </row>
     <row r="47" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="13" t="s">
         <v>38</v>
       </c>
@@ -6775,13 +6952,13 @@
       <c r="G47" s="8">
         <v>0.71875</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="26"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="12" t="s">
         <v>39</v>
       </c>
@@ -6800,13 +6977,13 @@
       <c r="G48" s="14">
         <v>0.7982456</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="26"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="35"/>
     </row>
     <row r="49" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="12" t="s">
         <v>43</v>
       </c>
@@ -6830,13 +7007,13 @@
         <f>AVERAGE(G45:G48)</f>
         <v>0.80155602500000001</v>
       </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="26"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
     </row>
     <row r="51" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="11"/>
@@ -6855,28 +7032,28 @@
       <c r="G51" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20" t="s">
+      <c r="I51" s="34"/>
+      <c r="J51" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K51" s="26" t="s">
+      <c r="K51" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="M51" s="21" t="s">
+      <c r="M51" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="13" t="s">
         <v>36</v>
       </c>
@@ -6895,10 +7072,10 @@
       <c r="G52" s="8">
         <v>0.86808510000000005</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="26"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="35"/>
       <c r="M52" s="11" t="s">
         <v>35</v>
       </c>
@@ -6914,13 +7091,13 @@
       <c r="Q52" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R52" s="20" t="s">
+      <c r="R52" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="S52" s="20"/>
+      <c r="S52" s="34"/>
     </row>
     <row r="53" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="13" t="s">
         <v>37</v>
       </c>
@@ -6939,10 +7116,10 @@
       <c r="G53" s="8">
         <v>0.85714290000000004</v>
       </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="26"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="35"/>
       <c r="M53">
         <v>0.82269999999999999</v>
       </c>
@@ -6958,11 +7135,11 @@
       <c r="Q53">
         <v>0.8248588</v>
       </c>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
     </row>
     <row r="54" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="13" t="s">
         <v>38</v>
       </c>
@@ -6981,13 +7158,13 @@
       <c r="G54" s="8">
         <v>0.74757280000000004</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="26"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="35"/>
     </row>
     <row r="55" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="12" t="s">
         <v>39</v>
       </c>
@@ -7006,13 +7183,13 @@
       <c r="G55" s="14">
         <v>0.81034479999999998</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="26"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="35"/>
     </row>
     <row r="56" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="12" t="s">
         <v>43</v>
       </c>
@@ -7036,13 +7213,13 @@
         <f>AVERAGE(G52:G55)</f>
         <v>0.82078640000000003</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="26"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="35"/>
     </row>
     <row r="58" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="11"/>
@@ -7061,26 +7238,26 @@
       <c r="G58" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="20" t="s">
+      <c r="H58" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20" t="s">
+      <c r="I58" s="34"/>
+      <c r="J58" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K58" s="26"/>
-      <c r="M58" s="21" t="s">
+      <c r="K58" s="35"/>
+      <c r="M58" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="13" t="s">
         <v>36</v>
       </c>
@@ -7099,17 +7276,17 @@
       <c r="G59" s="18">
         <v>0.8425532</v>
       </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="26"/>
-      <c r="N59" s="22" t="s">
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="35"/>
+      <c r="N59" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="22"/>
+      <c r="O59" s="33"/>
     </row>
     <row r="60" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="13" t="s">
         <v>37</v>
       </c>
@@ -7128,20 +7305,20 @@
       <c r="G60" s="18">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="26"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="35"/>
       <c r="M60" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="22">
+      <c r="N60" s="33">
         <v>0.28672419999999998</v>
       </c>
-      <c r="O60" s="22"/>
+      <c r="O60" s="33"/>
     </row>
     <row r="61" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="13" t="s">
         <v>38</v>
       </c>
@@ -7160,20 +7337,20 @@
       <c r="G61" s="19">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="26"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="35"/>
       <c r="M61" t="s">
         <v>37</v>
       </c>
-      <c r="N61" s="22">
+      <c r="N61" s="33">
         <v>0.49393569999999998</v>
       </c>
-      <c r="O61" s="22"/>
+      <c r="O61" s="33"/>
     </row>
     <row r="62" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="12" t="s">
         <v>39</v>
       </c>
@@ -7192,20 +7369,20 @@
       <c r="G62" s="14">
         <v>0.8583691</v>
       </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="26"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="35"/>
       <c r="M62" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="22">
+      <c r="N62" s="33">
         <v>0.49303560000000002</v>
       </c>
-      <c r="O62" s="22"/>
+      <c r="O62" s="33"/>
     </row>
     <row r="63" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
@@ -7229,43 +7406,107 @@
         <f>AVERAGE(G59:G62)</f>
         <v>0.85870697500000004</v>
       </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="26"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="35"/>
       <c r="M63" t="s">
         <v>39</v>
       </c>
-      <c r="N63" s="22">
+      <c r="N63" s="33">
         <v>0.46019470000000001</v>
       </c>
-      <c r="O63" s="22"/>
+      <c r="O63" s="33"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
+      <c r="A67" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K30:K35"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="K44:K49"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="M44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="M51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A67:S67"/>
     <mergeCell ref="N62:O62"/>
@@ -7282,72 +7523,216 @@
     <mergeCell ref="M58:S58"/>
     <mergeCell ref="N59:O59"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="M51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:J49"/>
-    <mergeCell ref="K44:K49"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="M44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K30:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E41F3D-A636-D945-A217-851DAEDD4D30}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="22" customWidth="1"/>
+    <col min="6" max="7" width="12.83203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="22"/>
+    <col min="9" max="9" width="6.5" style="22" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="84" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="25">
+        <v>28</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="25">
+        <v>1980</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="28" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="27">
+        <v>32</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1984</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23">
+        <v>2020</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="27">
+        <v>24</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1992</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="28" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="27">
+        <v>35</v>
+      </c>
+      <c r="G6" s="27">
+        <v>5</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1990</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=4025948" xr:uid="{B4E7A9CD-D363-F742-955F-AF6CD53FD298}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{4200CB42-07E9-7B45-A243-141D40F061FE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Wavelet Transformation/AAPL_Repository_summary.xlsx
+++ b/Wavelet Transformation/AAPL_Repository_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum_python/Wavelet Transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29285456-ED03-8E48-9891-580D272F4EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643014A5-7AA2-1649-908B-C049D95BAE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1040" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="123">
   <si>
     <t>file name</t>
   </si>
@@ -348,6 +348,64 @@
   </si>
   <si>
     <t>Daubechies mentioned that the wavelet transform can be used to analyse time series that contain non-stationary power at many different frequencies</t>
+  </si>
+  <si>
+    <t>Feature extraction using discrete wavelet transform for speech recognition</t>
+  </si>
+  <si>
+    <t>10.1109/SECON.2000.845444</t>
+  </si>
+  <si>
+    <t>Published in: Proceedings of the IEEE SoutheastCon 2000. 'Preparing for The New Millennium' (Cat. No.00CH37105)</t>
+  </si>
+  <si>
+    <t>Z. Tufekci; J.N. Gowdy</t>
+  </si>
+  <si>
+    <t>Ideal spatial adaptation by wavelet shrinkage.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/biomet/81.3.425</t>
+  </si>
+  <si>
+    <t>David L Donoho,  Iain M Johnstone</t>
+  </si>
+  <si>
+    <t>BIOMETRIKA</t>
+  </si>
+  <si>
+    <t>425-455</t>
+  </si>
+  <si>
+    <t>OXFORD ACADEMIC</t>
+  </si>
+  <si>
+    <t>The wavelet transform threshold denoising method was originally proposed by D.L. Donoho and I.M. Johnstone \cite{donoho1994}</t>
+  </si>
+  <si>
+    <t>The discrete wavelet transform: wedding the a trous and mallat algorithms.</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/ca7a/7b68935c38e52749cb4028ad941d068635da.pdf</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on
+signal processing</t>
+  </si>
+  <si>
+    <t>Mark J Shensa</t>
+  </si>
+  <si>
+    <t>2464-2482</t>
+  </si>
+  <si>
+    <t>The basic idea behind discrete wavelet transform is that after the signed been transformed \cite{shensa1995}, it is decomposed into two parts: appproximate coefficients and detail coefficents. The detail coefficients also name as wavelet coefficients. We assume that detail coefficients with larger amplitudes are important for represnting the raw signals, while detail coefficents with samller amplitudes are usually associated with noise \cite{shensa1995}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> More importantly, wavelet transform has the property of good time frequency localization, which could keep related signal spikes and sudden changes \cite{}</t>
+  </si>
+  <si>
+    <t>116-123</t>
   </si>
 </sst>
 </file>
@@ -551,29 +609,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -581,11 +636,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5891,7 +5949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A83DF2-08A8-0B46-A3D8-10068C9D5CF0}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
@@ -5906,27 +5964,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -5953,16 +6011,16 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="5" t="s">
         <v>61</v>
       </c>
@@ -5974,16 +6032,16 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5993,16 +6051,16 @@
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
@@ -6012,16 +6070,16 @@
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
@@ -6031,16 +6089,16 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="7" t="s">
         <v>4</v>
       </c>
@@ -6050,16 +6108,16 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
@@ -6069,16 +6127,16 @@
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
@@ -6088,16 +6146,16 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
@@ -6107,16 +6165,16 @@
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
@@ -6126,16 +6184,16 @@
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="7" t="s">
         <v>4</v>
       </c>
@@ -6145,20 +6203,20 @@
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6166,20 +6224,20 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -6195,18 +6253,18 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="21" x14ac:dyDescent="0.25">
@@ -6377,34 +6435,34 @@
       <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="11"/>
@@ -6423,14 +6481,14 @@
       <c r="G30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34" t="s">
+      <c r="I30" s="30"/>
+      <c r="J30" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="36" t="s">
         <v>49</v>
       </c>
       <c r="M30" s="11" t="s">
@@ -6448,13 +6506,13 @@
       <c r="Q30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="34" t="s">
+      <c r="R30" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="S30" s="34"/>
+      <c r="S30" s="30"/>
     </row>
     <row r="31" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="13" t="s">
         <v>36</v>
       </c>
@@ -6473,10 +6531,10 @@
       <c r="G31" s="7">
         <v>0.8177778</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="36"/>
       <c r="M31">
         <v>0.80430000000000001</v>
       </c>
@@ -6492,11 +6550,11 @@
       <c r="Q31">
         <v>0.80276820000000004</v>
       </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
     </row>
     <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="13" t="s">
         <v>37</v>
       </c>
@@ -6515,13 +6573,13 @@
       <c r="G32" s="7">
         <v>0.84444439999999998</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="36"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="13" t="s">
         <v>38</v>
       </c>
@@ -6540,13 +6598,13 @@
       <c r="G33" s="7">
         <v>0.74226800000000004</v>
       </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
@@ -6565,13 +6623,13 @@
       <c r="G34" s="14">
         <v>0.79295150000000003</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
@@ -6595,13 +6653,13 @@
         <f>AVERAGE(G31:G34)</f>
         <v>0.79936042500000004</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="11"/>
@@ -6620,28 +6678,28 @@
       <c r="G37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34" t="s">
+      <c r="I37" s="30"/>
+      <c r="J37" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K37" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="M37" s="37" t="s">
+      <c r="M37" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
     </row>
     <row r="38" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="13" t="s">
         <v>36</v>
       </c>
@@ -6660,10 +6718,10 @@
       <c r="G38" s="8">
         <v>0.84482760000000001</v>
       </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="36"/>
       <c r="M38" s="11" t="s">
         <v>35</v>
       </c>
@@ -6679,13 +6737,13 @@
       <c r="Q38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="34" t="s">
+      <c r="R38" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="S38" s="34"/>
+      <c r="S38" s="30"/>
     </row>
     <row r="39" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
@@ -6704,10 +6762,10 @@
       <c r="G39" s="8">
         <v>0.8430493</v>
       </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="36"/>
       <c r="M39">
         <v>0.82040000000000002</v>
       </c>
@@ -6723,11 +6781,11 @@
       <c r="Q39">
         <v>0.82057139999999995</v>
       </c>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
     </row>
     <row r="40" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
@@ -6746,13 +6804,13 @@
       <c r="G40" s="8">
         <v>0.73267329999999997</v>
       </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="36"/>
     </row>
     <row r="41" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
@@ -6771,13 +6829,13 @@
       <c r="G41" s="14">
         <v>0.80519479999999999</v>
       </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="36"/>
     </row>
     <row r="42" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="12" t="s">
         <v>43</v>
       </c>
@@ -6801,13 +6859,13 @@
         <f>AVERAGE(G38:G41)</f>
         <v>0.80643624999999997</v>
       </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="36"/>
     </row>
     <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="11"/>
@@ -6826,28 +6884,28 @@
       <c r="G44" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34" t="s">
+      <c r="I44" s="30"/>
+      <c r="J44" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K44" s="35" t="s">
+      <c r="K44" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="37" t="s">
+      <c r="M44" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
     </row>
     <row r="45" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="13" t="s">
         <v>36</v>
       </c>
@@ -6866,10 +6924,10 @@
       <c r="G45" s="8">
         <v>0.83333330000000005</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="36"/>
       <c r="M45" s="11" t="s">
         <v>35</v>
       </c>
@@ -6885,13 +6943,13 @@
       <c r="Q45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R45" s="34" t="s">
+      <c r="R45" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="S45" s="34"/>
+      <c r="S45" s="30"/>
     </row>
     <row r="46" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="13" t="s">
         <v>37</v>
       </c>
@@ -6910,10 +6968,10 @@
       <c r="G46" s="8">
         <v>0.85589519999999997</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="36"/>
       <c r="M46">
         <v>0.80089999999999995</v>
       </c>
@@ -6929,11 +6987,11 @@
       <c r="Q46">
         <v>0.79907620000000001</v>
       </c>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="13" t="s">
         <v>38</v>
       </c>
@@ -6952,13 +7010,13 @@
       <c r="G47" s="8">
         <v>0.71875</v>
       </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="36"/>
     </row>
     <row r="48" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="12" t="s">
         <v>39</v>
       </c>
@@ -6977,13 +7035,13 @@
       <c r="G48" s="14">
         <v>0.7982456</v>
       </c>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="36"/>
     </row>
     <row r="49" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="12" t="s">
         <v>43</v>
       </c>
@@ -7007,13 +7065,13 @@
         <f>AVERAGE(G45:G48)</f>
         <v>0.80155602500000001</v>
       </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="36"/>
     </row>
     <row r="51" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="11"/>
@@ -7032,28 +7090,28 @@
       <c r="G51" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="34" t="s">
+      <c r="H51" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34" t="s">
+      <c r="I51" s="30"/>
+      <c r="J51" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K51" s="35" t="s">
+      <c r="K51" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="M51" s="37" t="s">
+      <c r="M51" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
     </row>
     <row r="52" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="13" t="s">
         <v>36</v>
       </c>
@@ -7072,10 +7130,10 @@
       <c r="G52" s="8">
         <v>0.86808510000000005</v>
       </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="36"/>
       <c r="M52" s="11" t="s">
         <v>35</v>
       </c>
@@ -7091,13 +7149,13 @@
       <c r="Q52" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R52" s="34" t="s">
+      <c r="R52" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="S52" s="34"/>
+      <c r="S52" s="30"/>
     </row>
     <row r="53" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="13" t="s">
         <v>37</v>
       </c>
@@ -7116,10 +7174,10 @@
       <c r="G53" s="8">
         <v>0.85714290000000004</v>
       </c>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="36"/>
       <c r="M53">
         <v>0.82269999999999999</v>
       </c>
@@ -7135,11 +7193,11 @@
       <c r="Q53">
         <v>0.8248588</v>
       </c>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
     </row>
     <row r="54" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="13" t="s">
         <v>38</v>
       </c>
@@ -7158,13 +7216,13 @@
       <c r="G54" s="8">
         <v>0.74757280000000004</v>
       </c>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="36"/>
     </row>
     <row r="55" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="12" t="s">
         <v>39</v>
       </c>
@@ -7183,13 +7241,13 @@
       <c r="G55" s="14">
         <v>0.81034479999999998</v>
       </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="36"/>
     </row>
     <row r="56" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="12" t="s">
         <v>43</v>
       </c>
@@ -7213,13 +7271,13 @@
         <f>AVERAGE(G52:G55)</f>
         <v>0.82078640000000003</v>
       </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="36"/>
     </row>
     <row r="58" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="11"/>
@@ -7238,26 +7296,26 @@
       <c r="G58" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34" t="s">
+      <c r="I58" s="30"/>
+      <c r="J58" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="K58" s="35"/>
-      <c r="M58" s="37" t="s">
+      <c r="K58" s="36"/>
+      <c r="M58" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
     </row>
     <row r="59" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="13" t="s">
         <v>36</v>
       </c>
@@ -7276,17 +7334,17 @@
       <c r="G59" s="18">
         <v>0.8425532</v>
       </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="35"/>
-      <c r="N59" s="33" t="s">
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="36"/>
+      <c r="N59" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="33"/>
+      <c r="O59" s="32"/>
     </row>
     <row r="60" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="13" t="s">
         <v>37</v>
       </c>
@@ -7305,20 +7363,20 @@
       <c r="G60" s="18">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="36"/>
       <c r="M60" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="33">
+      <c r="N60" s="32">
         <v>0.28672419999999998</v>
       </c>
-      <c r="O60" s="33"/>
+      <c r="O60" s="32"/>
     </row>
     <row r="61" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="13" t="s">
         <v>38</v>
       </c>
@@ -7337,20 +7395,20 @@
       <c r="G61" s="19">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="36"/>
       <c r="M61" t="s">
         <v>37</v>
       </c>
-      <c r="N61" s="33">
+      <c r="N61" s="32">
         <v>0.49393569999999998</v>
       </c>
-      <c r="O61" s="33"/>
+      <c r="O61" s="32"/>
     </row>
     <row r="62" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="12" t="s">
         <v>39</v>
       </c>
@@ -7369,20 +7427,20 @@
       <c r="G62" s="14">
         <v>0.8583691</v>
       </c>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="36"/>
       <c r="M62" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="33">
+      <c r="N62" s="32">
         <v>0.49303560000000002</v>
       </c>
-      <c r="O62" s="33"/>
+      <c r="O62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
@@ -7406,78 +7464,72 @@
         <f>AVERAGE(G59:G62)</f>
         <v>0.85870697500000004</v>
       </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="36"/>
       <c r="M63" t="s">
         <v>39</v>
       </c>
-      <c r="N63" s="33">
+      <c r="N63" s="32">
         <v>0.46019470000000001</v>
       </c>
-      <c r="O63" s="33"/>
+      <c r="O63" s="32"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K30:K35"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A67:S67"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:J63"/>
+    <mergeCell ref="K58:K63"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="M58:S58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="M51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="R39:S39"/>
     <mergeCell ref="M37:S37"/>
@@ -7494,35 +7546,41 @@
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="R46:S46"/>
     <mergeCell ref="A37:A42"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="M51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A67:S67"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:J63"/>
-    <mergeCell ref="K58:K63"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="M58:S58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K30:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7531,10 +7589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E41F3D-A636-D945-A217-851DAEDD4D30}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7728,10 +7786,104 @@
         <v>78</v>
       </c>
     </row>
+    <row r="7" spans="1:10" s="28" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2000</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="28" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="27">
+        <v>81</v>
+      </c>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1994</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="28" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="27">
+        <v>40</v>
+      </c>
+      <c r="G9" s="27">
+        <v>10</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1995</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=4025948" xr:uid="{B4E7A9CD-D363-F742-955F-AF6CD53FD298}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{4200CB42-07E9-7B45-A243-141D40F061FE}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{EA9A5B20-03C5-F94F-A9E2-821A35CA87C9}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{28FB6D89-864B-C040-8DE6-F16A327BD0E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Wavelet Transformation/AAPL_Repository_summary.xlsx
+++ b/Wavelet Transformation/AAPL_Repository_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum_python/Wavelet Transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643014A5-7AA2-1649-908B-C049D95BAE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0D3D78-104E-5D43-B767-72426C4B6C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
+    <workbookView xWindow="5960" yWindow="9300" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="126">
   <si>
     <t>file name</t>
   </si>
@@ -406,6 +406,26 @@
   </si>
   <si>
     <t>116-123</t>
+  </si>
+  <si>
+    <t>An Introduction to Wavelet Theory and Analysis</t>
+  </si>
+  <si>
+    <t>Nadine E.Miner</t>
+  </si>
+  <si>
+    <t>article{osti_1896,
+title = {An Introduction to Wavelet Theory and Analysis},
+author = {Miner, N E},
+abstractNote = {This report reviews the history, theory and mathematics of wavelet analysis. Examination of the Fourier Transform and Short-time Fourier Transform methods provides tiormation about the evolution of the wavelet analysis technique. This overview is intended to provide readers with a basic understanding of wavelet analysis, define common wavelet terminology and describe wavelet amdysis algorithms. The most common algorithms for performing efficient, discrete wavelet transforms for signal analysis and inverse discrete wavelet transforms for signal reconstruction are presented. This report is intended to be approachable by non- mathematicians, although a basic understanding of engineering mathematics is necessary.},
+doi = {10.2172/1896},
+url = {https://www.osti.gov/biblio/1896}, journal = {},
+number = ,
+volume = ,
+place = {United States},
+year = {1998},
+month = {10}
+}</t>
   </si>
 </sst>
 </file>
@@ -7589,10 +7609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E41F3D-A636-D945-A217-851DAEDD4D30}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7878,6 +7898,17 @@
         <v>78</v>
       </c>
     </row>
+    <row r="10" spans="1:10" s="27" customFormat="1" ht="404" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=4025948" xr:uid="{B4E7A9CD-D363-F742-955F-AF6CD53FD298}"/>

--- a/Wavelet Transformation/AAPL_Repository_summary.xlsx
+++ b/Wavelet Transformation/AAPL_Repository_summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum_python/Wavelet Transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0D3D78-104E-5D43-B767-72426C4B6C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425FF41B-1348-DA4F-AB77-67638F1A1ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="9300" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
+    <workbookView xWindow="10180" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
     <sheet name="references" sheetId="2" r:id="rId2"/>
+    <sheet name="55 technical indicators" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="180">
   <si>
     <t>file name</t>
   </si>
@@ -222,9 +223,6 @@
   </si>
   <si>
     <t>Methodology</t>
-  </si>
-  <si>
-    <t>replicate the result with Image Processing Tools for Financial Time Series Classification, https://arxiv.org/abs/2008.06042</t>
   </si>
   <si>
     <t>Year</t>
@@ -426,6 +424,171 @@
 year = {1998},
 month = {10}
 }</t>
+  </si>
+  <si>
+    <t>ADX</t>
+  </si>
+  <si>
+    <t>aroon</t>
+  </si>
+  <si>
+    <t>trueHigh</t>
+  </si>
+  <si>
+    <t>trueLow</t>
+  </si>
+  <si>
+    <t>BBandsdn</t>
+  </si>
+  <si>
+    <t>BBandsmavg</t>
+  </si>
+  <si>
+    <t>BBandsup</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>chaikinVolatility</t>
+  </si>
+  <si>
+    <t>CLV</t>
+  </si>
+  <si>
+    <t>CMOClose</t>
+  </si>
+  <si>
+    <t>CTI</t>
+  </si>
+  <si>
+    <t>DonchianChannelH</t>
+  </si>
+  <si>
+    <t>DonchianChannelM</t>
+  </si>
+  <si>
+    <t>DonchianChannelL</t>
+  </si>
+  <si>
+    <t>DPOClose</t>
+  </si>
+  <si>
+    <t>DVIClose</t>
+  </si>
+  <si>
+    <t>GMMAClose</t>
+  </si>
+  <si>
+    <t>KSTClose</t>
+  </si>
+  <si>
+    <t>lags</t>
+  </si>
+  <si>
+    <t>MACD</t>
+  </si>
+  <si>
+    <t>PBandsdn</t>
+  </si>
+  <si>
+    <t>PBandscenter</t>
+  </si>
+  <si>
+    <t>PBandsup</t>
+  </si>
+  <si>
+    <t>ROCClose</t>
+  </si>
+  <si>
+    <t>momentumClose</t>
+  </si>
+  <si>
+    <t>RSIClose</t>
+  </si>
+  <si>
+    <t>runSum</t>
+  </si>
+  <si>
+    <t>runMin</t>
+  </si>
+  <si>
+    <t>runMax</t>
+  </si>
+  <si>
+    <t>runMedian</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>SMAClose</t>
+  </si>
+  <si>
+    <t>EMAClose</t>
+  </si>
+  <si>
+    <t>DEMAClose</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>TDI</t>
+  </si>
+  <si>
+    <t>TRIX</t>
+  </si>
+  <si>
+    <t>VHF</t>
+  </si>
+  <si>
+    <t>volatility</t>
+  </si>
+  <si>
+    <t>williamsAD</t>
+  </si>
+  <si>
+    <t>ZigZag</t>
+  </si>
+  <si>
+    <t>chaikinAD</t>
+  </si>
+  <si>
+    <t>CMF</t>
+  </si>
+  <si>
+    <t>CMOvolume</t>
+  </si>
+  <si>
+    <t>DPOvolume</t>
+  </si>
+  <si>
+    <t>EMV</t>
+  </si>
+  <si>
+    <t>GMMAvolume</t>
+  </si>
+  <si>
+    <t>MACDvolume</t>
+  </si>
+  <si>
+    <t>MFI</t>
+  </si>
+  <si>
+    <t>OBV</t>
+  </si>
+  <si>
+    <t>ROCvolume</t>
+  </si>
+  <si>
+    <t>runPR</t>
+  </si>
+  <si>
+    <t>SMAvolume</t>
   </si>
 </sst>
 </file>
@@ -511,7 +674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,12 +693,129 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -544,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -629,14 +909,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,25 +945,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +980,156 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5668,6 +6127,26 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F1353D8-98B2-E246-A213-BC637FD7F5C9}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A2:E12" xr:uid="{9F1353D8-98B2-E246-A213-BC637FD7F5C9}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7F0A0155-A9BE-A844-942B-51DC38359068}" name="ADX" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D83E44AD-BB78-BC4C-8953-78B23273435C}" name="aroon" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{04EDB779-08DD-D541-A4DE-1B90D13E7547}" name="trueHigh" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{51E743A5-7E4F-3D46-AA90-02390F13761B}" name="trueLow" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{550D4A0E-FE8C-9B41-8998-D5BBF2E38255}" name="BBandsdn" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5969,8 +6448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A83DF2-08A8-0B46-A3D8-10068C9D5CF0}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5984,27 +6463,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -6031,16 +6510,16 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="5" t="s">
         <v>61</v>
       </c>
@@ -6052,16 +6531,16 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6071,16 +6550,16 @@
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
@@ -6090,16 +6569,16 @@
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
@@ -6109,16 +6588,16 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="7" t="s">
         <v>4</v>
       </c>
@@ -6128,16 +6607,16 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
@@ -6147,16 +6626,16 @@
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
@@ -6166,16 +6645,16 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
@@ -6185,16 +6664,16 @@
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
@@ -6204,16 +6683,16 @@
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="7" t="s">
         <v>4</v>
       </c>
@@ -6223,20 +6702,20 @@
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6244,20 +6723,20 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -6273,18 +6752,18 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="21" x14ac:dyDescent="0.25">
@@ -6455,34 +6934,34 @@
       <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
       <c r="J29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
     </row>
     <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="11"/>
@@ -6501,14 +6980,14 @@
       <c r="G30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30" t="s">
+      <c r="I30" s="34"/>
+      <c r="J30" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="35" t="s">
         <v>49</v>
       </c>
       <c r="M30" s="11" t="s">
@@ -6526,13 +7005,13 @@
       <c r="Q30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="30" t="s">
+      <c r="R30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="S30" s="30"/>
+      <c r="S30" s="34"/>
     </row>
     <row r="31" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="13" t="s">
         <v>36</v>
       </c>
@@ -6551,10 +7030,10 @@
       <c r="G31" s="7">
         <v>0.8177778</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
       <c r="M31">
         <v>0.80430000000000001</v>
       </c>
@@ -6570,11 +7049,11 @@
       <c r="Q31">
         <v>0.80276820000000004</v>
       </c>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
     </row>
     <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="13" t="s">
         <v>37</v>
       </c>
@@ -6593,13 +7072,13 @@
       <c r="G32" s="7">
         <v>0.84444439999999998</v>
       </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="13" t="s">
         <v>38</v>
       </c>
@@ -6618,13 +7097,13 @@
       <c r="G33" s="7">
         <v>0.74226800000000004</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
@@ -6643,13 +7122,13 @@
       <c r="G34" s="14">
         <v>0.79295150000000003</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="35"/>
     </row>
     <row r="35" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
@@ -6673,13 +7152,13 @@
         <f>AVERAGE(G31:G34)</f>
         <v>0.79936042500000004</v>
       </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="35"/>
     </row>
     <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="11"/>
@@ -6698,28 +7177,28 @@
       <c r="G37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30" t="s">
+      <c r="I37" s="34"/>
+      <c r="J37" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M37" s="31" t="s">
+      <c r="M37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="13" t="s">
         <v>36</v>
       </c>
@@ -6738,10 +7217,10 @@
       <c r="G38" s="8">
         <v>0.84482760000000001</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="35"/>
       <c r="M38" s="11" t="s">
         <v>35</v>
       </c>
@@ -6757,13 +7236,13 @@
       <c r="Q38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="30" t="s">
+      <c r="R38" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="S38" s="30"/>
+      <c r="S38" s="34"/>
     </row>
     <row r="39" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
@@ -6782,10 +7261,10 @@
       <c r="G39" s="8">
         <v>0.8430493</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
       <c r="M39">
         <v>0.82040000000000002</v>
       </c>
@@ -6801,11 +7280,11 @@
       <c r="Q39">
         <v>0.82057139999999995</v>
       </c>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
     </row>
     <row r="40" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
@@ -6824,13 +7303,13 @@
       <c r="G40" s="8">
         <v>0.73267329999999997</v>
       </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
@@ -6849,13 +7328,13 @@
       <c r="G41" s="14">
         <v>0.80519479999999999</v>
       </c>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="12" t="s">
         <v>43</v>
       </c>
@@ -6879,13 +7358,13 @@
         <f>AVERAGE(G38:G41)</f>
         <v>0.80643624999999997</v>
       </c>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="35"/>
     </row>
     <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="11"/>
@@ -6904,28 +7383,28 @@
       <c r="G44" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30" t="s">
+      <c r="I44" s="34"/>
+      <c r="J44" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="K44" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="31" t="s">
+      <c r="M44" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
     </row>
     <row r="45" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="13" t="s">
         <v>36</v>
       </c>
@@ -6944,10 +7423,10 @@
       <c r="G45" s="8">
         <v>0.83333330000000005</v>
       </c>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="35"/>
       <c r="M45" s="11" t="s">
         <v>35</v>
       </c>
@@ -6963,13 +7442,13 @@
       <c r="Q45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R45" s="30" t="s">
+      <c r="R45" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="S45" s="30"/>
+      <c r="S45" s="34"/>
     </row>
     <row r="46" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="13" t="s">
         <v>37</v>
       </c>
@@ -6988,10 +7467,10 @@
       <c r="G46" s="8">
         <v>0.85589519999999997</v>
       </c>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35"/>
       <c r="M46">
         <v>0.80089999999999995</v>
       </c>
@@ -7007,11 +7486,11 @@
       <c r="Q46">
         <v>0.79907620000000001</v>
       </c>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
     </row>
     <row r="47" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="13" t="s">
         <v>38</v>
       </c>
@@ -7030,13 +7509,13 @@
       <c r="G47" s="8">
         <v>0.71875</v>
       </c>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="12" t="s">
         <v>39</v>
       </c>
@@ -7055,13 +7534,13 @@
       <c r="G48" s="14">
         <v>0.7982456</v>
       </c>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="35"/>
     </row>
     <row r="49" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="12" t="s">
         <v>43</v>
       </c>
@@ -7085,13 +7564,13 @@
         <f>AVERAGE(G45:G48)</f>
         <v>0.80155602500000001</v>
       </c>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
     </row>
     <row r="51" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="11"/>
@@ -7110,28 +7589,28 @@
       <c r="G51" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30" t="s">
+      <c r="I51" s="34"/>
+      <c r="J51" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K51" s="36" t="s">
+      <c r="K51" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="M51" s="31" t="s">
+      <c r="M51" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="13" t="s">
         <v>36</v>
       </c>
@@ -7150,10 +7629,10 @@
       <c r="G52" s="8">
         <v>0.86808510000000005</v>
       </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="35"/>
       <c r="M52" s="11" t="s">
         <v>35</v>
       </c>
@@ -7169,13 +7648,13 @@
       <c r="Q52" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R52" s="30" t="s">
+      <c r="R52" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="S52" s="30"/>
+      <c r="S52" s="34"/>
     </row>
     <row r="53" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="13" t="s">
         <v>37</v>
       </c>
@@ -7194,10 +7673,10 @@
       <c r="G53" s="8">
         <v>0.85714290000000004</v>
       </c>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="35"/>
       <c r="M53">
         <v>0.82269999999999999</v>
       </c>
@@ -7213,11 +7692,11 @@
       <c r="Q53">
         <v>0.8248588</v>
       </c>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
     </row>
     <row r="54" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="13" t="s">
         <v>38</v>
       </c>
@@ -7236,13 +7715,13 @@
       <c r="G54" s="8">
         <v>0.74757280000000004</v>
       </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="35"/>
     </row>
     <row r="55" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="12" t="s">
         <v>39</v>
       </c>
@@ -7261,13 +7740,13 @@
       <c r="G55" s="14">
         <v>0.81034479999999998</v>
       </c>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="35"/>
     </row>
     <row r="56" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="12" t="s">
         <v>43</v>
       </c>
@@ -7291,13 +7770,13 @@
         <f>AVERAGE(G52:G55)</f>
         <v>0.82078640000000003</v>
       </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="35"/>
     </row>
     <row r="58" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="11"/>
@@ -7316,26 +7795,26 @@
       <c r="G58" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="H58" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30" t="s">
+      <c r="I58" s="34"/>
+      <c r="J58" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K58" s="36"/>
-      <c r="M58" s="31" t="s">
+      <c r="K58" s="35"/>
+      <c r="M58" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="13" t="s">
         <v>36</v>
       </c>
@@ -7354,17 +7833,17 @@
       <c r="G59" s="18">
         <v>0.8425532</v>
       </c>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="36"/>
-      <c r="N59" s="32" t="s">
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="35"/>
+      <c r="N59" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="32"/>
+      <c r="O59" s="33"/>
     </row>
     <row r="60" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="13" t="s">
         <v>37</v>
       </c>
@@ -7383,20 +7862,20 @@
       <c r="G60" s="18">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="35"/>
       <c r="M60" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="32">
+      <c r="N60" s="33">
         <v>0.28672419999999998</v>
       </c>
-      <c r="O60" s="32"/>
+      <c r="O60" s="33"/>
     </row>
     <row r="61" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="30"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="13" t="s">
         <v>38</v>
       </c>
@@ -7415,20 +7894,20 @@
       <c r="G61" s="19">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="35"/>
       <c r="M61" t="s">
         <v>37</v>
       </c>
-      <c r="N61" s="32">
+      <c r="N61" s="33">
         <v>0.49393569999999998</v>
       </c>
-      <c r="O61" s="32"/>
+      <c r="O61" s="33"/>
     </row>
     <row r="62" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="12" t="s">
         <v>39</v>
       </c>
@@ -7447,20 +7926,20 @@
       <c r="G62" s="14">
         <v>0.8583691</v>
       </c>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="35"/>
       <c r="M62" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="32">
+      <c r="N62" s="33">
         <v>0.49303560000000002</v>
       </c>
-      <c r="O62" s="32"/>
+      <c r="O62" s="33"/>
     </row>
     <row r="63" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
@@ -7484,43 +7963,105 @@
         <f>AVERAGE(G59:G62)</f>
         <v>0.85870697500000004</v>
       </c>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="35"/>
       <c r="M63" t="s">
         <v>39</v>
       </c>
-      <c r="N63" s="32">
+      <c r="N63" s="33">
         <v>0.46019470000000001</v>
       </c>
-      <c r="O63" s="32"/>
+      <c r="O63" s="33"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K30:K35"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="K44:K49"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="M44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="M51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A67:S67"/>
     <mergeCell ref="N62:O62"/>
@@ -7537,70 +8078,6 @@
     <mergeCell ref="M58:S58"/>
     <mergeCell ref="N59:O59"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="M51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:J49"/>
-    <mergeCell ref="K44:K49"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="M44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K30:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7611,7 +8088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E41F3D-A636-D945-A217-851DAEDD4D30}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7630,109 +8107,109 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>75</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="25">
         <v>28</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="25">
         <v>1980</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="28" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="27" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>83</v>
       </c>
       <c r="F3" s="27">
         <v>32</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="27">
         <v>1984</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="29" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -7741,54 +8218,54 @@
         <v>2020</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>93</v>
       </c>
       <c r="F5" s="27">
         <v>24</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5" s="27">
         <v>1992</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="28" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>102</v>
-      </c>
       <c r="E6" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="27">
         <v>35</v>
@@ -7797,58 +8274,58 @@
         <v>5</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="27">
         <v>1990</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="28" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>106</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I7" s="27">
         <v>2000</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="28" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="F8" s="27">
         <v>81</v>
@@ -7857,30 +8334,30 @@
         <v>3</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" s="27">
         <v>1994</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="28" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>117</v>
       </c>
       <c r="F9" s="27">
         <v>40</v>
@@ -7889,24 +8366,24 @@
         <v>10</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="27">
         <v>1995</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="27" customFormat="1" ht="404" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7918,4 +8395,222 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB99D43A-CD40-8442-9C9E-AA113FA5C859}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Wavelet Transformation/AAPL_Repository_summary.xlsx
+++ b/Wavelet Transformation/AAPL_Repository_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum_python/Wavelet Transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425FF41B-1348-DA4F-AB77-67638F1A1ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879AAB92-2E52-974F-B7A8-B7612E5357E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
+    <workbookView xWindow="2080" yWindow="500" windowWidth="35840" windowHeight="20560" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -595,6 +595,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -866,9 +869,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,42 +909,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,34 +939,51 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1107,13 +1088,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1127,6 +1101,35 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -6130,7 +6133,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F1353D8-98B2-E246-A213-BC637FD7F5C9}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F1353D8-98B2-E246-A213-BC637FD7F5C9}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A2:E12" xr:uid="{9F1353D8-98B2-E246-A213-BC637FD7F5C9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6139,11 +6142,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7F0A0155-A9BE-A844-942B-51DC38359068}" name="ADX" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D83E44AD-BB78-BC4C-8953-78B23273435C}" name="aroon" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{04EDB779-08DD-D541-A4DE-1B90D13E7547}" name="trueHigh" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{51E743A5-7E4F-3D46-AA90-02390F13761B}" name="trueLow" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{550D4A0E-FE8C-9B41-8998-D5BBF2E38255}" name="BBandsdn" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7F0A0155-A9BE-A844-942B-51DC38359068}" name="ADX" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D83E44AD-BB78-BC4C-8953-78B23273435C}" name="aroon" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{04EDB779-08DD-D541-A4DE-1B90D13E7547}" name="trueHigh" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{51E743A5-7E4F-3D46-AA90-02390F13761B}" name="trueLow" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{550D4A0E-FE8C-9B41-8998-D5BBF2E38255}" name="BBandsdn" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6448,8 +6451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A83DF2-08A8-0B46-A3D8-10068C9D5CF0}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6463,63 +6466,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
     </row>
-    <row r="2" spans="1:19" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+    <row r="2" spans="1:19" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
     </row>
     <row r="3" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="5" t="s">
         <v>61</v>
       </c>
@@ -6531,16 +6534,16 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6550,16 +6553,16 @@
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
@@ -6569,16 +6572,16 @@
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
@@ -6588,16 +6591,16 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="7" t="s">
         <v>4</v>
       </c>
@@ -6607,16 +6610,16 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
@@ -6626,16 +6629,16 @@
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
@@ -6645,16 +6648,16 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
@@ -6664,16 +6667,16 @@
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
@@ -6683,16 +6686,16 @@
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="7" t="s">
         <v>4</v>
       </c>
@@ -6702,20 +6705,20 @@
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="46" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6723,20 +6726,20 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -6752,18 +6755,18 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="21" x14ac:dyDescent="0.25">
@@ -6934,34 +6937,34 @@
       <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
     </row>
     <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="11"/>
@@ -6980,14 +6983,14 @@
       <c r="G30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34" t="s">
+      <c r="I30" s="39"/>
+      <c r="J30" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="45" t="s">
         <v>49</v>
       </c>
       <c r="M30" s="11" t="s">
@@ -7005,13 +7008,13 @@
       <c r="Q30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="34" t="s">
+      <c r="R30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="S30" s="34"/>
+      <c r="S30" s="39"/>
     </row>
     <row r="31" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="13" t="s">
         <v>36</v>
       </c>
@@ -7030,10 +7033,10 @@
       <c r="G31" s="7">
         <v>0.8177778</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="45"/>
       <c r="M31">
         <v>0.80430000000000001</v>
       </c>
@@ -7049,11 +7052,11 @@
       <c r="Q31">
         <v>0.80276820000000004</v>
       </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
     </row>
     <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="13" t="s">
         <v>37</v>
       </c>
@@ -7072,13 +7075,13 @@
       <c r="G32" s="7">
         <v>0.84444439999999998</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="35"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="13" t="s">
         <v>38</v>
       </c>
@@ -7097,13 +7100,13 @@
       <c r="G33" s="7">
         <v>0.74226800000000004</v>
       </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="35"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
@@ -7122,43 +7125,43 @@
       <c r="G34" s="14">
         <v>0.79295150000000003</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="35"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="51">
         <f>AVERAGE(C31:C34)</f>
         <v>0.8034</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="51">
         <f>AVERAGE(D31:D34)</f>
         <v>0.82570517500000007</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="51">
         <f>AVERAGE(E31:E34)</f>
         <v>0.81897240000000004</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="51">
         <f>AVERAGE(F31:F34)</f>
         <v>0.78089569999999997</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="51">
         <f>AVERAGE(G31:G34)</f>
         <v>0.79936042500000004</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="35"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="45"/>
     </row>
     <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="11"/>
@@ -7177,28 +7180,28 @@
       <c r="G37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34" t="s">
+      <c r="I37" s="39"/>
+      <c r="J37" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K37" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="M37" s="37" t="s">
+      <c r="M37" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
     </row>
     <row r="38" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="13" t="s">
         <v>36</v>
       </c>
@@ -7217,10 +7220,10 @@
       <c r="G38" s="8">
         <v>0.84482760000000001</v>
       </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="35"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="45"/>
       <c r="M38" s="11" t="s">
         <v>35</v>
       </c>
@@ -7236,13 +7239,13 @@
       <c r="Q38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="34" t="s">
+      <c r="R38" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="S38" s="34"/>
+      <c r="S38" s="39"/>
     </row>
     <row r="39" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
@@ -7261,10 +7264,10 @@
       <c r="G39" s="8">
         <v>0.8430493</v>
       </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="35"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="45"/>
       <c r="M39">
         <v>0.82040000000000002</v>
       </c>
@@ -7280,11 +7283,11 @@
       <c r="Q39">
         <v>0.82057139999999995</v>
       </c>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
     </row>
     <row r="40" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
@@ -7303,13 +7306,13 @@
       <c r="G40" s="8">
         <v>0.73267329999999997</v>
       </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="35"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="45"/>
     </row>
     <row r="41" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
@@ -7328,43 +7331,43 @@
       <c r="G41" s="14">
         <v>0.80519479999999999</v>
       </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="35"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="45"/>
     </row>
     <row r="42" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="51">
         <f>AVERAGE(C38:C41)</f>
         <v>0.80682500000000001</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="51">
         <f>AVERAGE(D38:D41)</f>
         <v>0.81091424999999995</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="51">
         <f>AVERAGE(E38:E41)</f>
         <v>0.81047179999999996</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="51">
         <f>AVERAGE(F38:F41)</f>
         <v>0.80303550000000001</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="51">
         <f>AVERAGE(G38:G41)</f>
         <v>0.80643624999999997</v>
       </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="35"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="45"/>
     </row>
     <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="11"/>
@@ -7383,28 +7386,28 @@
       <c r="G44" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34" t="s">
+      <c r="I44" s="39"/>
+      <c r="J44" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K44" s="35" t="s">
+      <c r="K44" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="37" t="s">
+      <c r="M44" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
     </row>
     <row r="45" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="13" t="s">
         <v>36</v>
       </c>
@@ -7414,7 +7417,7 @@
       <c r="D45" s="8">
         <v>0.84466019999999997</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="15">
         <v>0.8558559</v>
       </c>
       <c r="F45" s="8">
@@ -7423,10 +7426,10 @@
       <c r="G45" s="8">
         <v>0.83333330000000005</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="35"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="45"/>
       <c r="M45" s="11" t="s">
         <v>35</v>
       </c>
@@ -7442,13 +7445,13 @@
       <c r="Q45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R45" s="34" t="s">
+      <c r="R45" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="S45" s="34"/>
+      <c r="S45" s="39"/>
     </row>
     <row r="46" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="13" t="s">
         <v>37</v>
       </c>
@@ -7467,10 +7470,10 @@
       <c r="G46" s="8">
         <v>0.85589519999999997</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="35"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="45"/>
       <c r="M46">
         <v>0.80089999999999995</v>
       </c>
@@ -7486,11 +7489,11 @@
       <c r="Q46">
         <v>0.79907620000000001</v>
       </c>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="13" t="s">
         <v>38</v>
       </c>
@@ -7509,13 +7512,13 @@
       <c r="G47" s="8">
         <v>0.71875</v>
       </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="35"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="45"/>
     </row>
     <row r="48" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="12" t="s">
         <v>39</v>
       </c>
@@ -7534,43 +7537,43 @@
       <c r="G48" s="14">
         <v>0.7982456</v>
       </c>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="35"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="45"/>
     </row>
     <row r="49" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="51">
         <f>AVERAGE(C45:C48)</f>
         <v>0.80567500000000003</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="51">
         <f>AVERAGE(D45:D48)</f>
         <v>0.82129750000000001</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="51">
         <f>AVERAGE(E45:E48)</f>
         <v>0.81547304999999992</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="51">
         <f>AVERAGE(F45:F48)</f>
         <v>0.78836857500000002</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="51">
         <f>AVERAGE(G45:G48)</f>
         <v>0.80155602500000001</v>
       </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="35"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="45"/>
     </row>
     <row r="51" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="11"/>
@@ -7589,28 +7592,28 @@
       <c r="G51" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="34" t="s">
+      <c r="H51" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34" t="s">
+      <c r="I51" s="39"/>
+      <c r="J51" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K51" s="35" t="s">
+      <c r="K51" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="M51" s="37" t="s">
+      <c r="M51" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
     </row>
     <row r="52" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="13" t="s">
         <v>36</v>
       </c>
@@ -7629,10 +7632,10 @@
       <c r="G52" s="8">
         <v>0.86808510000000005</v>
       </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="35"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="45"/>
       <c r="M52" s="11" t="s">
         <v>35</v>
       </c>
@@ -7648,13 +7651,13 @@
       <c r="Q52" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R52" s="34" t="s">
+      <c r="R52" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="S52" s="34"/>
+      <c r="S52" s="39"/>
     </row>
     <row r="53" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="13" t="s">
         <v>37</v>
       </c>
@@ -7673,10 +7676,10 @@
       <c r="G53" s="8">
         <v>0.85714290000000004</v>
       </c>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="35"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="45"/>
       <c r="M53">
         <v>0.82269999999999999</v>
       </c>
@@ -7692,11 +7695,11 @@
       <c r="Q53">
         <v>0.8248588</v>
       </c>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="13" t="s">
         <v>38</v>
       </c>
@@ -7715,13 +7718,13 @@
       <c r="G54" s="8">
         <v>0.74757280000000004</v>
       </c>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="35"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="45"/>
     </row>
     <row r="55" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="12" t="s">
         <v>39</v>
       </c>
@@ -7740,43 +7743,43 @@
       <c r="G55" s="14">
         <v>0.81034479999999998</v>
       </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="35"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="45"/>
     </row>
     <row r="56" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="51">
         <f>AVERAGE(C52:C55)</f>
         <v>0.81929999999999992</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="51">
         <f>AVERAGE(D52:D55)</f>
         <v>0.81365069999999995</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="51">
         <f>AVERAGE(E52:E55)</f>
         <v>0.81687209999999999</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="51">
         <f>AVERAGE(F52:F55)</f>
         <v>0.82575832500000002</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="51">
         <f>AVERAGE(G52:G55)</f>
         <v>0.82078640000000003</v>
       </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="35"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="45"/>
     </row>
     <row r="58" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="11"/>
@@ -7795,119 +7798,119 @@
       <c r="G58" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34" t="s">
+      <c r="I58" s="39"/>
+      <c r="J58" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K58" s="35"/>
-      <c r="M58" s="37" t="s">
+      <c r="K58" s="45"/>
+      <c r="M58" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
     </row>
     <row r="59" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="17">
         <v>0.83179999999999998</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="17">
         <v>0.81553399999999998</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="17">
         <v>0.83898309999999998</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="17">
         <v>0.84615379999999996</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="17">
         <v>0.8425532</v>
       </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="35"/>
-      <c r="N59" s="33" t="s">
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="45"/>
+      <c r="N59" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="33"/>
+      <c r="O59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>0.85909999999999997</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="17">
         <v>0.85436889999999999</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="17">
         <v>0.87068970000000001</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="17">
         <v>0.86324789999999996</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="17">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="35"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="45"/>
       <c r="M60" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="33">
+      <c r="N60" s="41">
         <v>0.28672419999999998</v>
       </c>
-      <c r="O60" s="33"/>
+      <c r="O60" s="41"/>
     </row>
     <row r="61" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="17">
         <v>0.85909999999999997</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="18">
         <v>0.85436889999999999</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="18">
         <v>0.87068970000000001</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="18">
         <v>0.86324789999999996</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="18">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="35"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="45"/>
       <c r="M61" t="s">
         <v>37</v>
       </c>
-      <c r="N61" s="33">
+      <c r="N61" s="41">
         <v>0.49393569999999998</v>
       </c>
-      <c r="O61" s="33"/>
+      <c r="O61" s="41"/>
     </row>
     <row r="62" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="12" t="s">
         <v>39</v>
       </c>
@@ -7926,113 +7929,107 @@
       <c r="G62" s="14">
         <v>0.8583691</v>
       </c>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="35"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="45"/>
       <c r="M62" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="33">
+      <c r="N62" s="41">
         <v>0.49303560000000002</v>
       </c>
-      <c r="O62" s="33"/>
+      <c r="O62" s="41"/>
     </row>
     <row r="63" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="51">
         <f>AVERAGE(C59:C62)</f>
         <v>0.85</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="51">
         <f>AVERAGE(D59:D62)</f>
         <v>0.8422329999999999</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="51">
         <f>AVERAGE(E59:E62)</f>
         <v>0.86060787499999991</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="51">
         <f>AVERAGE(F59:F62)</f>
         <v>0.85683762500000005</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="51">
         <f>AVERAGE(G59:G62)</f>
         <v>0.85870697500000004</v>
       </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="35"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="45"/>
       <c r="M63" t="s">
         <v>39</v>
       </c>
-      <c r="N63" s="33">
+      <c r="N63" s="41">
         <v>0.46019470000000001</v>
       </c>
-      <c r="O63" s="33"/>
+      <c r="O63" s="41"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="50"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50"/>
+      <c r="S67" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K30:K35"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A67:S67"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:J63"/>
+    <mergeCell ref="K58:K63"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="M58:S58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="M51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="R39:S39"/>
     <mergeCell ref="M37:S37"/>
@@ -8049,35 +8046,41 @@
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="R46:S46"/>
     <mergeCell ref="A37:A42"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="M51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A67:S67"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:J63"/>
-    <mergeCell ref="K58:K63"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="M58:S58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K30:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8094,295 +8097,295 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="22" customWidth="1"/>
-    <col min="6" max="7" width="12.83203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="22"/>
-    <col min="9" max="9" width="6.5" style="22" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="17.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="21" customWidth="1"/>
+    <col min="6" max="7" width="12.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="21"/>
+    <col min="9" max="9" width="6.5" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="84" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>28</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>1980</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="28" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:10" s="27" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>32</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>1984</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="29" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:10" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22">
         <v>2020</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:10" s="27" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>24</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <v>1992</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="28" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:10" s="27" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>35</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="26">
         <v>5</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>1990</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="28" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:10" s="27" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>2000</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="28" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:10" s="27" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>81</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>3</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>1994</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="28" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:10" s="27" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>40</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>10</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>1995</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="27" customFormat="1" ht="404" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:10" s="26" customFormat="1" ht="404" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8411,196 +8414,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="31" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="34" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="34" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="34" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="34" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="34" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="34" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="37" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Wavelet Transformation/AAPL_Repository_summary.xlsx
+++ b/Wavelet Transformation/AAPL_Repository_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum_python/Wavelet Transformation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Wavelet Transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879AAB92-2E52-974F-B7A8-B7612E5357E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753085F-53B5-8744-B3F0-19A016C14DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="500" windowWidth="35840" windowHeight="20560" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -939,26 +939,32 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -966,17 +972,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6451,7 +6451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A83DF2-08A8-0B46-A3D8-10068C9D5CF0}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
@@ -6466,27 +6466,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
     </row>
     <row r="2" spans="1:19" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -6513,16 +6513,16 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="5" t="s">
         <v>61</v>
       </c>
@@ -6534,16 +6534,16 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6553,16 +6553,16 @@
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
@@ -6572,16 +6572,16 @@
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
@@ -6591,16 +6591,16 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="7" t="s">
         <v>4</v>
       </c>
@@ -6610,16 +6610,16 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
@@ -6629,16 +6629,16 @@
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
@@ -6648,16 +6648,16 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
@@ -6667,16 +6667,16 @@
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
@@ -6686,16 +6686,16 @@
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="7" t="s">
         <v>4</v>
       </c>
@@ -6705,20 +6705,20 @@
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="48" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6726,20 +6726,20 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="46"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -6755,18 +6755,18 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="21" x14ac:dyDescent="0.25">
@@ -6937,34 +6937,34 @@
       <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
       <c r="J29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="40" t="s">
+      <c r="M29" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
     </row>
     <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="11"/>
@@ -6983,11 +6983,11 @@
       <c r="G30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39" t="s">
+      <c r="I30" s="44"/>
+      <c r="J30" s="44" t="s">
         <v>56</v>
       </c>
       <c r="K30" s="45" t="s">
@@ -7008,13 +7008,13 @@
       <c r="Q30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="S30" s="39"/>
+      <c r="S30" s="44"/>
     </row>
     <row r="31" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="13" t="s">
         <v>36</v>
       </c>
@@ -7033,9 +7033,9 @@
       <c r="G31" s="7">
         <v>0.8177778</v>
       </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="39"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="44"/>
       <c r="K31" s="45"/>
       <c r="M31">
         <v>0.80430000000000001</v>
@@ -7052,11 +7052,11 @@
       <c r="Q31">
         <v>0.80276820000000004</v>
       </c>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
     </row>
     <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="13" t="s">
         <v>37</v>
       </c>
@@ -7075,13 +7075,13 @@
       <c r="G32" s="7">
         <v>0.84444439999999998</v>
       </c>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="39"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="44"/>
       <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="13" t="s">
         <v>38</v>
       </c>
@@ -7100,13 +7100,13 @@
       <c r="G33" s="7">
         <v>0.74226800000000004</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="39"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="44"/>
       <c r="K33" s="45"/>
     </row>
     <row r="34" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
@@ -7125,43 +7125,43 @@
       <c r="G34" s="14">
         <v>0.79295150000000003</v>
       </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="39"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="44"/>
       <c r="K34" s="45"/>
     </row>
     <row r="35" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="39">
         <f>AVERAGE(C31:C34)</f>
         <v>0.8034</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="39">
         <f>AVERAGE(D31:D34)</f>
         <v>0.82570517500000007</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="39">
         <f>AVERAGE(E31:E34)</f>
         <v>0.81897240000000004</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="39">
         <f>AVERAGE(F31:F34)</f>
         <v>0.78089569999999997</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="39">
         <f>AVERAGE(G31:G34)</f>
         <v>0.79936042500000004</v>
       </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="39"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="44"/>
       <c r="K35" s="45"/>
     </row>
     <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="11"/>
@@ -7180,28 +7180,28 @@
       <c r="G37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H37" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39" t="s">
+      <c r="I37" s="44"/>
+      <c r="J37" s="44" t="s">
         <v>55</v>
       </c>
       <c r="K37" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="M37" s="40" t="s">
+      <c r="M37" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
     </row>
     <row r="38" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="13" t="s">
         <v>36</v>
       </c>
@@ -7220,9 +7220,9 @@
       <c r="G38" s="8">
         <v>0.84482760000000001</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="39"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="44"/>
       <c r="K38" s="45"/>
       <c r="M38" s="11" t="s">
         <v>35</v>
@@ -7239,13 +7239,13 @@
       <c r="Q38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="39" t="s">
+      <c r="R38" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="S38" s="39"/>
+      <c r="S38" s="44"/>
     </row>
     <row r="39" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
@@ -7264,9 +7264,9 @@
       <c r="G39" s="8">
         <v>0.8430493</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="39"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="44"/>
       <c r="K39" s="45"/>
       <c r="M39">
         <v>0.82040000000000002</v>
@@ -7283,11 +7283,11 @@
       <c r="Q39">
         <v>0.82057139999999995</v>
       </c>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
     </row>
     <row r="40" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
@@ -7306,13 +7306,13 @@
       <c r="G40" s="8">
         <v>0.73267329999999997</v>
       </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="39"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="45"/>
     </row>
     <row r="41" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
@@ -7331,43 +7331,43 @@
       <c r="G41" s="14">
         <v>0.80519479999999999</v>
       </c>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="39"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="45"/>
     </row>
     <row r="42" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="39">
         <f>AVERAGE(C38:C41)</f>
         <v>0.80682500000000001</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="39">
         <f>AVERAGE(D38:D41)</f>
         <v>0.81091424999999995</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="39">
         <f>AVERAGE(E38:E41)</f>
         <v>0.81047179999999996</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="39">
         <f>AVERAGE(F38:F41)</f>
         <v>0.80303550000000001</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="39">
         <f>AVERAGE(G38:G41)</f>
         <v>0.80643624999999997</v>
       </c>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="39"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="44"/>
       <c r="K42" s="45"/>
     </row>
     <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="44" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="11"/>
@@ -7386,28 +7386,28 @@
       <c r="G44" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39" t="s">
+      <c r="I44" s="44"/>
+      <c r="J44" s="44" t="s">
         <v>56</v>
       </c>
       <c r="K44" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="40" t="s">
+      <c r="M44" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
     </row>
     <row r="45" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="13" t="s">
         <v>36</v>
       </c>
@@ -7426,9 +7426,9 @@
       <c r="G45" s="8">
         <v>0.83333330000000005</v>
       </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="39"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="44"/>
       <c r="K45" s="45"/>
       <c r="M45" s="11" t="s">
         <v>35</v>
@@ -7445,13 +7445,13 @@
       <c r="Q45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R45" s="39" t="s">
+      <c r="R45" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="S45" s="39"/>
+      <c r="S45" s="44"/>
     </row>
     <row r="46" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="13" t="s">
         <v>37</v>
       </c>
@@ -7470,9 +7470,9 @@
       <c r="G46" s="8">
         <v>0.85589519999999997</v>
       </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="39"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="44"/>
       <c r="K46" s="45"/>
       <c r="M46">
         <v>0.80089999999999995</v>
@@ -7489,11 +7489,11 @@
       <c r="Q46">
         <v>0.79907620000000001</v>
       </c>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
     </row>
     <row r="47" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="13" t="s">
         <v>38</v>
       </c>
@@ -7512,13 +7512,13 @@
       <c r="G47" s="8">
         <v>0.71875</v>
       </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="44"/>
       <c r="K47" s="45"/>
     </row>
     <row r="48" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="12" t="s">
         <v>39</v>
       </c>
@@ -7537,43 +7537,43 @@
       <c r="G48" s="14">
         <v>0.7982456</v>
       </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="39"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="44"/>
       <c r="K48" s="45"/>
     </row>
     <row r="49" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="39">
         <f>AVERAGE(C45:C48)</f>
         <v>0.80567500000000003</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="39">
         <f>AVERAGE(D45:D48)</f>
         <v>0.82129750000000001</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="39">
         <f>AVERAGE(E45:E48)</f>
         <v>0.81547304999999992</v>
       </c>
-      <c r="F49" s="51">
+      <c r="F49" s="39">
         <f>AVERAGE(F45:F48)</f>
         <v>0.78836857500000002</v>
       </c>
-      <c r="G49" s="51">
+      <c r="G49" s="39">
         <f>AVERAGE(G45:G48)</f>
         <v>0.80155602500000001</v>
       </c>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="39"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="44"/>
       <c r="K49" s="45"/>
     </row>
     <row r="51" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="44" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="11"/>
@@ -7592,28 +7592,28 @@
       <c r="G51" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H51" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39" t="s">
+      <c r="I51" s="44"/>
+      <c r="J51" s="44" t="s">
         <v>55</v>
       </c>
       <c r="K51" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="M51" s="40" t="s">
+      <c r="M51" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="13" t="s">
         <v>36</v>
       </c>
@@ -7632,9 +7632,9 @@
       <c r="G52" s="8">
         <v>0.86808510000000005</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="39"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="44"/>
       <c r="K52" s="45"/>
       <c r="M52" s="11" t="s">
         <v>35</v>
@@ -7651,13 +7651,13 @@
       <c r="Q52" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R52" s="39" t="s">
+      <c r="R52" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="S52" s="39"/>
+      <c r="S52" s="44"/>
     </row>
     <row r="53" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="13" t="s">
         <v>37</v>
       </c>
@@ -7676,9 +7676,9 @@
       <c r="G53" s="8">
         <v>0.85714290000000004</v>
       </c>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="39"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="44"/>
       <c r="K53" s="45"/>
       <c r="M53">
         <v>0.82269999999999999</v>
@@ -7695,11 +7695,11 @@
       <c r="Q53">
         <v>0.8248588</v>
       </c>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
     </row>
     <row r="54" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="13" t="s">
         <v>38</v>
       </c>
@@ -7718,13 +7718,13 @@
       <c r="G54" s="8">
         <v>0.74757280000000004</v>
       </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="39"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="44"/>
       <c r="K54" s="45"/>
     </row>
     <row r="55" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="12" t="s">
         <v>39</v>
       </c>
@@ -7743,43 +7743,43 @@
       <c r="G55" s="14">
         <v>0.81034479999999998</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="39"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="44"/>
       <c r="K55" s="45"/>
     </row>
     <row r="56" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="39">
         <f>AVERAGE(C52:C55)</f>
         <v>0.81929999999999992</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="39">
         <f>AVERAGE(D52:D55)</f>
         <v>0.81365069999999995</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="39">
         <f>AVERAGE(E52:E55)</f>
         <v>0.81687209999999999</v>
       </c>
-      <c r="F56" s="51">
+      <c r="F56" s="39">
         <f>AVERAGE(F52:F55)</f>
         <v>0.82575832500000002</v>
       </c>
-      <c r="G56" s="51">
+      <c r="G56" s="39">
         <f>AVERAGE(G52:G55)</f>
         <v>0.82078640000000003</v>
       </c>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="39"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="44"/>
       <c r="K56" s="45"/>
     </row>
     <row r="58" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="44" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="11"/>
@@ -7798,26 +7798,26 @@
       <c r="G58" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39" t="s">
+      <c r="I58" s="44"/>
+      <c r="J58" s="44" t="s">
         <v>59</v>
       </c>
       <c r="K58" s="45"/>
-      <c r="M58" s="40" t="s">
+      <c r="M58" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
     </row>
     <row r="59" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="13" t="s">
         <v>36</v>
       </c>
@@ -7836,17 +7836,17 @@
       <c r="G59" s="17">
         <v>0.8425532</v>
       </c>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="39"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="44"/>
       <c r="K59" s="45"/>
-      <c r="N59" s="41" t="s">
+      <c r="N59" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="41"/>
+      <c r="O59" s="43"/>
     </row>
     <row r="60" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="13" t="s">
         <v>37</v>
       </c>
@@ -7865,20 +7865,20 @@
       <c r="G60" s="17">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="39"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="44"/>
       <c r="K60" s="45"/>
       <c r="M60" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="41">
+      <c r="N60" s="43">
         <v>0.28672419999999998</v>
       </c>
-      <c r="O60" s="41"/>
+      <c r="O60" s="43"/>
     </row>
     <row r="61" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="13" t="s">
         <v>38</v>
       </c>
@@ -7897,20 +7897,20 @@
       <c r="G61" s="18">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="39"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="44"/>
       <c r="K61" s="45"/>
       <c r="M61" t="s">
         <v>37</v>
       </c>
-      <c r="N61" s="41">
+      <c r="N61" s="43">
         <v>0.49393569999999998</v>
       </c>
-      <c r="O61" s="41"/>
+      <c r="O61" s="43"/>
     </row>
     <row r="62" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="12" t="s">
         <v>39</v>
       </c>
@@ -7929,78 +7929,142 @@
       <c r="G62" s="14">
         <v>0.8583691</v>
       </c>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="39"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="44"/>
       <c r="K62" s="45"/>
       <c r="M62" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="41">
+      <c r="N62" s="43">
         <v>0.49303560000000002</v>
       </c>
-      <c r="O62" s="41"/>
+      <c r="O62" s="43"/>
     </row>
     <row r="63" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="51">
+      <c r="C63" s="39">
         <f>AVERAGE(C59:C62)</f>
         <v>0.85</v>
       </c>
-      <c r="D63" s="51">
+      <c r="D63" s="39">
         <f>AVERAGE(D59:D62)</f>
         <v>0.8422329999999999</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="39">
         <f>AVERAGE(E59:E62)</f>
         <v>0.86060787499999991</v>
       </c>
-      <c r="F63" s="51">
+      <c r="F63" s="39">
         <f>AVERAGE(F59:F62)</f>
         <v>0.85683762500000005</v>
       </c>
-      <c r="G63" s="51">
+      <c r="G63" s="39">
         <f>AVERAGE(G59:G62)</f>
         <v>0.85870697500000004</v>
       </c>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="39"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="44"/>
       <c r="K63" s="45"/>
       <c r="M63" t="s">
         <v>39</v>
       </c>
-      <c r="N63" s="41">
+      <c r="N63" s="43">
         <v>0.46019470000000001</v>
       </c>
-      <c r="O63" s="41"/>
+      <c r="O63" s="43"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="50"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K30:K35"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="K44:K49"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="M44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="M51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A67:S67"/>
     <mergeCell ref="N62:O62"/>
@@ -8017,70 +8081,6 @@
     <mergeCell ref="M58:S58"/>
     <mergeCell ref="N59:O59"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="M51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:J49"/>
-    <mergeCell ref="K44:K49"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="M44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K30:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8091,7 +8091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E41F3D-A636-D945-A217-851DAEDD4D30}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -8414,11 +8414,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">

--- a/Wavelet Transformation/AAPL_Repository_summary.xlsx
+++ b/Wavelet Transformation/AAPL_Repository_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Wavelet Transformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753085F-53B5-8744-B3F0-19A016C14DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A76F153-1B3C-4B4F-B403-9E28FBAA5DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{B6D1D89D-CA6C-7B42-999A-500C4E43312D}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,6 +699,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -942,29 +948,26 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -972,10 +975,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6451,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A83DF2-08A8-0B46-A3D8-10068C9D5CF0}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6466,27 +6475,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="2" spans="1:19" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -6513,16 +6522,16 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="5" t="s">
         <v>61</v>
       </c>
@@ -6534,16 +6543,16 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6553,16 +6562,16 @@
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
@@ -6572,35 +6581,35 @@
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="40" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="7" t="s">
         <v>4</v>
       </c>
@@ -6610,16 +6619,16 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
@@ -6629,16 +6638,16 @@
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
@@ -6648,16 +6657,16 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
@@ -6667,16 +6676,16 @@
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
@@ -6686,16 +6695,16 @@
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="7" t="s">
         <v>4</v>
       </c>
@@ -6705,20 +6714,20 @@
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6726,20 +6735,20 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -6755,18 +6764,18 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="21" x14ac:dyDescent="0.25">
@@ -6937,34 +6946,34 @@
       <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="47" t="s">
+      <c r="M29" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
     </row>
     <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="11"/>
@@ -6983,14 +6992,14 @@
       <c r="G30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44" t="s">
+      <c r="I30" s="40"/>
+      <c r="J30" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K30" s="46" t="s">
         <v>49</v>
       </c>
       <c r="M30" s="11" t="s">
@@ -7008,13 +7017,13 @@
       <c r="Q30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="44" t="s">
+      <c r="R30" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="S30" s="44"/>
+      <c r="S30" s="40"/>
     </row>
     <row r="31" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="13" t="s">
         <v>36</v>
       </c>
@@ -7033,10 +7042,10 @@
       <c r="G31" s="7">
         <v>0.8177778</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="46"/>
       <c r="M31">
         <v>0.80430000000000001</v>
       </c>
@@ -7052,11 +7061,11 @@
       <c r="Q31">
         <v>0.80276820000000004</v>
       </c>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
     </row>
     <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="13" t="s">
         <v>37</v>
       </c>
@@ -7075,13 +7084,13 @@
       <c r="G32" s="7">
         <v>0.84444439999999998</v>
       </c>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="46"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="13" t="s">
         <v>38</v>
       </c>
@@ -7100,13 +7109,13 @@
       <c r="G33" s="7">
         <v>0.74226800000000004</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
@@ -7125,13 +7134,13 @@
       <c r="G34" s="14">
         <v>0.79295150000000003</v>
       </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="46"/>
     </row>
     <row r="35" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
@@ -7155,13 +7164,13 @@
         <f>AVERAGE(G31:G34)</f>
         <v>0.79936042500000004</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="46"/>
     </row>
     <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="11"/>
@@ -7180,28 +7189,28 @@
       <c r="G37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H37" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44" t="s">
+      <c r="I37" s="40"/>
+      <c r="J37" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="45" t="s">
+      <c r="K37" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="M37" s="47" t="s">
+      <c r="M37" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
     </row>
     <row r="38" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="13" t="s">
         <v>36</v>
       </c>
@@ -7220,10 +7229,10 @@
       <c r="G38" s="8">
         <v>0.84482760000000001</v>
       </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="46"/>
       <c r="M38" s="11" t="s">
         <v>35</v>
       </c>
@@ -7239,13 +7248,13 @@
       <c r="Q38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="44" t="s">
+      <c r="R38" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="S38" s="44"/>
+      <c r="S38" s="40"/>
     </row>
     <row r="39" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
@@ -7264,10 +7273,10 @@
       <c r="G39" s="8">
         <v>0.8430493</v>
       </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="46"/>
       <c r="M39">
         <v>0.82040000000000002</v>
       </c>
@@ -7283,11 +7292,11 @@
       <c r="Q39">
         <v>0.82057139999999995</v>
       </c>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
     </row>
     <row r="40" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
@@ -7306,13 +7315,13 @@
       <c r="G40" s="8">
         <v>0.73267329999999997</v>
       </c>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="46"/>
     </row>
     <row r="41" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
@@ -7331,13 +7340,13 @@
       <c r="G41" s="14">
         <v>0.80519479999999999</v>
       </c>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="46"/>
     </row>
     <row r="42" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="12" t="s">
         <v>43</v>
       </c>
@@ -7361,13 +7370,13 @@
         <f>AVERAGE(G38:G41)</f>
         <v>0.80643624999999997</v>
       </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="46"/>
     </row>
     <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="11"/>
@@ -7386,28 +7395,28 @@
       <c r="G44" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44" t="s">
+      <c r="I44" s="40"/>
+      <c r="J44" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="K44" s="45" t="s">
+      <c r="K44" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="47" t="s">
+      <c r="M44" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
     </row>
     <row r="45" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="13" t="s">
         <v>36</v>
       </c>
@@ -7426,10 +7435,10 @@
       <c r="G45" s="8">
         <v>0.83333330000000005</v>
       </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="46"/>
       <c r="M45" s="11" t="s">
         <v>35</v>
       </c>
@@ -7445,13 +7454,13 @@
       <c r="Q45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R45" s="44" t="s">
+      <c r="R45" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="S45" s="44"/>
+      <c r="S45" s="40"/>
     </row>
     <row r="46" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="13" t="s">
         <v>37</v>
       </c>
@@ -7470,10 +7479,10 @@
       <c r="G46" s="8">
         <v>0.85589519999999997</v>
       </c>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="46"/>
       <c r="M46">
         <v>0.80089999999999995</v>
       </c>
@@ -7489,11 +7498,11 @@
       <c r="Q46">
         <v>0.79907620000000001</v>
       </c>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
     </row>
     <row r="47" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="13" t="s">
         <v>38</v>
       </c>
@@ -7512,13 +7521,13 @@
       <c r="G47" s="8">
         <v>0.71875</v>
       </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="46"/>
     </row>
     <row r="48" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="12" t="s">
         <v>39</v>
       </c>
@@ -7537,13 +7546,13 @@
       <c r="G48" s="14">
         <v>0.7982456</v>
       </c>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="46"/>
     </row>
     <row r="49" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="12" t="s">
         <v>43</v>
       </c>
@@ -7567,13 +7576,13 @@
         <f>AVERAGE(G45:G48)</f>
         <v>0.80155602500000001</v>
       </c>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="46"/>
     </row>
     <row r="51" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="11"/>
@@ -7592,28 +7601,28 @@
       <c r="G51" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="44" t="s">
+      <c r="H51" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44" t="s">
+      <c r="I51" s="40"/>
+      <c r="J51" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="K51" s="45" t="s">
+      <c r="K51" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="M51" s="47" t="s">
+      <c r="M51" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
     </row>
     <row r="52" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="13" t="s">
         <v>36</v>
       </c>
@@ -7632,10 +7641,10 @@
       <c r="G52" s="8">
         <v>0.86808510000000005</v>
       </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="46"/>
       <c r="M52" s="11" t="s">
         <v>35</v>
       </c>
@@ -7651,13 +7660,13 @@
       <c r="Q52" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R52" s="44" t="s">
+      <c r="R52" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="S52" s="44"/>
+      <c r="S52" s="40"/>
     </row>
     <row r="53" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="13" t="s">
         <v>37</v>
       </c>
@@ -7676,10 +7685,10 @@
       <c r="G53" s="8">
         <v>0.85714290000000004</v>
       </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="46"/>
       <c r="M53">
         <v>0.82269999999999999</v>
       </c>
@@ -7695,11 +7704,11 @@
       <c r="Q53">
         <v>0.8248588</v>
       </c>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
     </row>
     <row r="54" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="13" t="s">
         <v>38</v>
       </c>
@@ -7718,13 +7727,13 @@
       <c r="G54" s="8">
         <v>0.74757280000000004</v>
       </c>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="46"/>
     </row>
     <row r="55" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="12" t="s">
         <v>39</v>
       </c>
@@ -7743,13 +7752,13 @@
       <c r="G55" s="14">
         <v>0.81034479999999998</v>
       </c>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="46"/>
     </row>
     <row r="56" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="12" t="s">
         <v>43</v>
       </c>
@@ -7773,13 +7782,13 @@
         <f>AVERAGE(G52:G55)</f>
         <v>0.82078640000000003</v>
       </c>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="46"/>
     </row>
     <row r="58" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="11"/>
@@ -7798,26 +7807,26 @@
       <c r="G58" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="44" t="s">
+      <c r="H58" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44" t="s">
+      <c r="I58" s="40"/>
+      <c r="J58" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="K58" s="45"/>
-      <c r="M58" s="47" t="s">
+      <c r="K58" s="46"/>
+      <c r="M58" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="47"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
     </row>
     <row r="59" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="44"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="13" t="s">
         <v>36</v>
       </c>
@@ -7836,17 +7845,17 @@
       <c r="G59" s="17">
         <v>0.8425532</v>
       </c>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="45"/>
-      <c r="N59" s="43" t="s">
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="46"/>
+      <c r="N59" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="43"/>
+      <c r="O59" s="42"/>
     </row>
     <row r="60" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="13" t="s">
         <v>37</v>
       </c>
@@ -7865,20 +7874,20 @@
       <c r="G60" s="17">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="46"/>
       <c r="M60" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="43">
+      <c r="N60" s="42">
         <v>0.28672419999999998</v>
       </c>
-      <c r="O60" s="43"/>
+      <c r="O60" s="42"/>
     </row>
     <row r="61" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="44"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="13" t="s">
         <v>38</v>
       </c>
@@ -7897,20 +7906,20 @@
       <c r="G61" s="18">
         <v>0.86695279999999997</v>
       </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="46"/>
       <c r="M61" t="s">
         <v>37</v>
       </c>
-      <c r="N61" s="43">
+      <c r="N61" s="42">
         <v>0.49393569999999998</v>
       </c>
-      <c r="O61" s="43"/>
+      <c r="O61" s="42"/>
     </row>
     <row r="62" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="12" t="s">
         <v>39</v>
       </c>
@@ -7929,20 +7938,20 @@
       <c r="G62" s="14">
         <v>0.8583691</v>
       </c>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="46"/>
       <c r="M62" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="43">
+      <c r="N62" s="42">
         <v>0.49303560000000002</v>
       </c>
-      <c r="O62" s="43"/>
+      <c r="O62" s="42"/>
     </row>
     <row r="63" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
@@ -7966,76 +7975,70 @@
         <f>AVERAGE(G59:G62)</f>
         <v>0.85870697500000004</v>
       </c>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="46"/>
       <c r="M63" t="s">
         <v>39</v>
       </c>
-      <c r="N63" s="43">
+      <c r="N63" s="42">
         <v>0.46019470000000001</v>
       </c>
-      <c r="O63" s="43"/>
+      <c r="O63" s="42"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="51"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K30:K35"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A67:S67"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:J63"/>
+    <mergeCell ref="K58:K63"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="M58:S58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="M51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="R39:S39"/>
     <mergeCell ref="M37:S37"/>
@@ -8052,35 +8055,41 @@
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="R46:S46"/>
     <mergeCell ref="A37:A42"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="M51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A67:S67"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:J63"/>
-    <mergeCell ref="K58:K63"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="M58:S58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K30:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8091,7 +8100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E41F3D-A636-D945-A217-851DAEDD4D30}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -8404,7 +8413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB99D43A-CD40-8442-9C9E-AA113FA5C859}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -8414,11 +8423,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
